--- a/FullSpecModbusMap.xlsx
+++ b/FullSpecModbusMap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\STROUDSAS\Research\FieldInstruments\SCAN\SCAN_Manuals\Modbus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdamiano.STROUDWATER\Documents\GitHub\StroudCenter\S-CAN-Modbus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Holding Registers" sheetId="1" r:id="rId1"/>
@@ -2803,9 +2803,6 @@
     <t>Seems to be entirely "0"s, with the exception of values in #31, #33 and #35 (from spectro::lyzer only)</t>
   </si>
   <si>
-    <t>A ascii character string with a date.. Unknown what the date is for.  Spectro::lyzer only (not ana::gate)</t>
-  </si>
-  <si>
     <t>Device Status</t>
   </si>
   <si>
@@ -2912,9 +2909,6 @@
   </si>
   <si>
     <t>Number of values recorded for each reference??</t>
-  </si>
-  <si>
-    <t>?? Has valye 0x0100 = 256</t>
   </si>
   <si>
     <t>Number of reference in use (0-6)</t>
@@ -3123,6 +3117,12 @@
       <t xml:space="preserve"> of local calibration.
   If global calibration used, will be 0,1,0,0</t>
     </r>
+  </si>
+  <si>
+    <t>?? Has value 0x0100 = 256</t>
+  </si>
+  <si>
+    <t>A ascii character string with a date.. Unknown what the date is for (warranty expiration date? firmware update date? gate last factory serviced?).  Spectro::lyzer only (not ana::gate)</t>
   </si>
 </sst>
 </file>
@@ -3375,6 +3375,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3401,21 +3416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -3714,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,43 +3733,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3801,7 +3801,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3828,7 +3828,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3980,7 +3980,7 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
@@ -4034,7 +4034,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
@@ -4142,7 +4142,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
         <v>50</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="9" t="s">
         <v>34</v>
       </c>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="28" t="s">
         <v>222</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4302,7 +4302,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="9" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="9" t="s">
         <v>57</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="9" t="s">
         <v>77</v>
       </c>
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="9" t="s">
         <v>500</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H28" s="9">
         <v>134</v>
@@ -4425,7 +4425,7 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
@@ -4467,16 +4467,16 @@
         <v>146</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>133</v>
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="9" t="s">
         <v>77</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="12" t="s">
         <v>77</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4565,7 +4565,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="9" t="s">
         <v>77</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
         <v>77</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H39" s="9">
         <v>254</v>
@@ -4688,7 +4688,7 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="9" t="s">
         <v>77</v>
       </c>
@@ -4730,16 +4730,16 @@
         <v>266</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>133</v>
@@ -4755,7 +4755,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="9" t="s">
         <v>77</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="12" t="s">
         <v>77</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -4826,7 +4826,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="9" t="s">
         <v>77</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="9" t="s">
         <v>77</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H50" s="9">
         <v>374</v>
@@ -4949,7 +4949,7 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="9" t="s">
         <v>77</v>
       </c>
@@ -4972,7 +4972,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="9" t="s">
         <v>77</v>
       </c>
@@ -4991,16 +4991,16 @@
         <v>386</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>133</v>
@@ -5018,7 +5018,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="9" t="s">
         <v>77</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="12" t="s">
         <v>77</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="28" t="s">
         <v>225</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -5089,7 +5089,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="9" t="s">
         <v>67</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="9" t="s">
         <v>68</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="9" t="s">
         <v>77</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="9" t="s">
         <v>77</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H61" s="9">
         <v>494</v>
@@ -5212,7 +5212,7 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="9" t="s">
         <v>77</v>
       </c>
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="9" t="s">
         <v>77</v>
       </c>
@@ -5254,16 +5254,16 @@
         <v>506</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>133</v>
@@ -5281,7 +5281,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="9" t="s">
         <v>77</v>
       </c>
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="12" t="s">
         <v>77</v>
       </c>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -5352,7 +5352,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="9" t="s">
         <v>110</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="9" t="s">
         <v>111</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="9" t="s">
         <v>112</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="9" t="s">
         <v>77</v>
       </c>
@@ -5450,7 +5450,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="9" t="s">
         <v>77</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H72" s="9">
         <v>614</v>
@@ -5475,7 +5475,7 @@
       <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
@@ -5498,7 +5498,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="9" t="s">
         <v>77</v>
       </c>
@@ -5517,16 +5517,16 @@
         <v>626</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>133</v>
@@ -5544,7 +5544,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="9" t="s">
         <v>77</v>
       </c>
@@ -5567,7 +5567,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="12" t="s">
         <v>77</v>
       </c>
@@ -5588,7 +5588,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -5615,7 +5615,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="9" t="s">
         <v>98</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="9" t="s">
         <v>99</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="9" t="s">
         <v>100</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="9" t="s">
         <v>77</v>
       </c>
@@ -5713,7 +5713,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="9" t="s">
         <v>77</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H83" s="9">
         <v>734</v>
@@ -5738,7 +5738,7 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
@@ -5761,7 +5761,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="9" t="s">
         <v>77</v>
       </c>
@@ -5784,12 +5784,12 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>133</v>
@@ -5807,7 +5807,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="9" t="s">
         <v>77</v>
       </c>
@@ -5830,7 +5830,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="12" t="s">
         <v>77</v>
       </c>
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="28" t="s">
         <v>228</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -5878,7 +5878,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="9" t="s">
         <v>94</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="9" t="s">
         <v>95</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="9" t="s">
         <v>96</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="9" t="s">
         <v>77</v>
       </c>
@@ -5976,7 +5976,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="9" t="s">
         <v>77</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H94" s="9">
         <v>854</v>
@@ -6001,7 +6001,7 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="9" t="s">
         <v>77</v>
       </c>
@@ -6024,7 +6024,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="9" t="s">
         <v>77</v>
       </c>
@@ -6047,12 +6047,12 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>133</v>
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="9" t="s">
         <v>77</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="12" t="s">
         <v>77</v>
       </c>
@@ -6114,7 +6114,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
+      <c r="A100" s="28" t="s">
         <v>229</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -6141,7 +6141,7 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="9" t="s">
         <v>82</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="9" t="s">
         <v>83</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="9" t="s">
         <v>84</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="9" t="s">
         <v>77</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="9" t="s">
         <v>77</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H105" s="9">
         <v>974</v>
@@ -6264,7 +6264,7 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="9" t="s">
         <v>77</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
         <v>625</v>
@@ -6308,12 +6308,12 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>133</v>
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="9" t="s">
         <v>77</v>
       </c>
@@ -6354,7 +6354,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="12" t="s">
         <v>77</v>
       </c>
@@ -6375,46 +6375,46 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="29"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="34"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="32"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="37"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="35"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="40"/>
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -6439,7 +6439,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="9" t="s">
         <v>514</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="9" t="s">
         <v>121</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H116" s="9">
         <v>1087</v>
@@ -6485,7 +6485,7 @@
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="9" t="s">
         <v>121</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H117" s="9">
         <v>1088</v>
@@ -6508,7 +6508,7 @@
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="9" t="s">
         <v>515</v>
       </c>
@@ -6529,11 +6529,11 @@
         <v>1089</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="9" t="s">
         <v>121</v>
       </c>
@@ -6552,11 +6552,11 @@
         <v>1095</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="12" t="s">
         <v>513</v>
       </c>
@@ -6577,18 +6577,18 @@
         <v>1098</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6">
@@ -6604,12 +6604,12 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>129</v>
@@ -6625,7 +6625,7 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="9" t="s">
         <v>130</v>
       </c>
@@ -6648,7 +6648,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="9" t="s">
         <v>121</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="9" t="s">
         <v>121</v>
       </c>
@@ -6688,11 +6688,11 @@
         <v>1208</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="9" t="s">
         <v>121</v>
       </c>
@@ -6715,7 +6715,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
@@ -6738,11 +6738,11 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
+      <c r="A128" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>644</v>
@@ -6755,17 +6755,17 @@
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H128" s="6">
         <v>1488</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>943</v>
+        <v>982</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="9" t="s">
         <v>121</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="9" t="s">
         <v>511</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H130" s="9">
         <v>1507</v>
@@ -6807,7 +6807,7 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="9" t="s">
         <v>510</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
+      <c r="A132" s="30"/>
       <c r="B132" s="12" t="s">
         <v>512</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -6874,7 +6874,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="9" t="s">
         <v>727</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="9" t="s">
         <v>735</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="9" t="s">
         <v>740</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="9" t="s">
         <v>741</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="9" t="s">
         <v>742</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="9" t="s">
         <v>750</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="9" t="s">
         <v>751</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="9"/>
       <c r="C141" s="10" t="s">
         <v>845</v>
@@ -7058,7 +7058,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="9" t="s">
         <v>753</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="I142" s="11"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="9" t="s">
         <v>754</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="I143" s="11"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="9" t="s">
         <v>756</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="9" t="s">
         <v>755</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="9" t="s">
         <v>121</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="9" t="s">
         <v>728</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
+      <c r="A148" s="30"/>
       <c r="B148" s="12" t="s">
         <v>721</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="36" t="s">
+      <c r="A149" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -7240,7 +7240,7 @@
       <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="9" t="s">
         <v>711</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="I150" s="11"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="9" t="s">
         <v>789</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="I151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="9" t="s">
         <v>791</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="I152" s="11"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="9" t="s">
         <v>793</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="I153" s="11"/>
     </row>
     <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="9" t="s">
         <v>795</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="9" t="s">
         <v>797</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="I155" s="11"/>
     </row>
     <row r="156" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="9" t="s">
         <v>799</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="9"/>
       <c r="C157" s="10" t="s">
         <v>855</v>
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="9" t="s">
         <v>800</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="I158" s="11"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="9" t="s">
         <v>801</v>
       </c>
@@ -7470,7 +7470,7 @@
       <c r="I159" s="11"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="9" t="s">
         <v>802</v>
       </c>
@@ -7493,7 +7493,7 @@
       <c r="I160" s="11"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="9" t="s">
         <v>803</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="37"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="9" t="s">
         <v>121</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="I162" s="11"/>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="37"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="9" t="s">
         <v>716</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
+      <c r="A164" s="30"/>
       <c r="B164" s="12" t="s">
         <v>722</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="36" t="s">
+      <c r="A165" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -7602,7 +7602,7 @@
       <c r="I165" s="8"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="9" t="s">
         <v>712</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="I166" s="11"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="37"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="9" t="s">
         <v>805</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="I167" s="11"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="9" t="s">
         <v>807</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="I168" s="11"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="37"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="9" t="s">
         <v>809</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="I169" s="11"/>
     </row>
     <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="37"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="9" t="s">
         <v>811</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="37"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="9" t="s">
         <v>813</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="I171" s="11"/>
     </row>
     <row r="172" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="37"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="9" t="s">
         <v>815</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="I172" s="11"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="37"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="9"/>
       <c r="C173" s="10" t="s">
         <v>866</v>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="37"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="9" t="s">
         <v>816</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="I174" s="11"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="37"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="9" t="s">
         <v>817</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="37"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="9" t="s">
         <v>818</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="I176" s="11"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="37"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="9" t="s">
         <v>819</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="I177" s="11"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="9" t="s">
         <v>121</v>
       </c>
@@ -7897,7 +7897,7 @@
       <c r="I178" s="11"/>
     </row>
     <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="37"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="9" t="s">
         <v>717</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
+      <c r="A180" s="30"/>
       <c r="B180" s="12" t="s">
         <v>723</v>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="36" t="s">
+      <c r="A181" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -7964,7 +7964,7 @@
       <c r="I181" s="8"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="37"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="9" t="s">
         <v>713</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="I182" s="11"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="37"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="9" t="s">
         <v>821</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="I183" s="11"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="37"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="9" t="s">
         <v>823</v>
       </c>
@@ -8033,7 +8033,7 @@
       <c r="I184" s="11"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="37"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="9" t="s">
         <v>825</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="I185" s="11"/>
     </row>
     <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="9" t="s">
         <v>827</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="37"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="9" t="s">
         <v>829</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="I187" s="11"/>
     </row>
     <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="37"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="9" t="s">
         <v>831</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="I188" s="11"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="37"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="9"/>
       <c r="C189" s="10" t="s">
         <v>877</v>
@@ -8148,7 +8148,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="9" t="s">
         <v>832</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="I190" s="11"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="9" t="s">
         <v>833</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="I191" s="11"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="9" t="s">
         <v>834</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="I192" s="11"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="37"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="9" t="s">
         <v>835</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="37"/>
+      <c r="A194" s="29"/>
       <c r="B194" s="9" t="s">
         <v>121</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="37"/>
+      <c r="A195" s="29"/>
       <c r="B195" s="9" t="s">
         <v>718</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="38"/>
+      <c r="A196" s="30"/>
       <c r="B196" s="12" t="s">
         <v>724</v>
       </c>
@@ -8305,7 +8305,7 @@
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="36" t="s">
+      <c r="A197" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -8326,7 +8326,7 @@
       <c r="I197" s="8"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="37"/>
+      <c r="A198" s="29"/>
       <c r="B198" s="9" t="s">
         <v>714</v>
       </c>
@@ -8349,7 +8349,7 @@
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
+      <c r="A199" s="29"/>
       <c r="B199" s="9" t="s">
         <v>773</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="I199" s="11"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="37"/>
+      <c r="A200" s="29"/>
       <c r="B200" s="9" t="s">
         <v>775</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="I200" s="11"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
+      <c r="A201" s="29"/>
       <c r="B201" s="9" t="s">
         <v>777</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="I201" s="11"/>
     </row>
     <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="9" t="s">
         <v>779</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="I202" s="11"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
+      <c r="A203" s="29"/>
       <c r="B203" s="9" t="s">
         <v>781</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="I203" s="11"/>
     </row>
     <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
+      <c r="A204" s="29"/>
       <c r="B204" s="9" t="s">
         <v>783</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="I204" s="11"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
+      <c r="A205" s="29"/>
       <c r="B205" s="9"/>
       <c r="C205" s="10" t="s">
         <v>888</v>
@@ -8510,7 +8510,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="9" t="s">
         <v>784</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="I206" s="11"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
+      <c r="A207" s="29"/>
       <c r="B207" s="9" t="s">
         <v>785</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
+      <c r="A208" s="29"/>
       <c r="B208" s="9" t="s">
         <v>786</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="I208" s="11"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="37"/>
+      <c r="A209" s="29"/>
       <c r="B209" s="9" t="s">
         <v>787</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="I209" s="11"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="37"/>
+      <c r="A210" s="29"/>
       <c r="B210" s="9" t="s">
         <v>121</v>
       </c>
@@ -8621,7 +8621,7 @@
       <c r="I210" s="11"/>
     </row>
     <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="9" t="s">
         <v>719</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="I211" s="11"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="38"/>
+      <c r="A212" s="30"/>
       <c r="B212" s="12" t="s">
         <v>725</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="36" t="s">
+      <c r="A213" s="28" t="s">
         <v>708</v>
       </c>
       <c r="B213" s="6" t="s">
@@ -8688,7 +8688,7 @@
       <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="9" t="s">
         <v>715</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="I214" s="11"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="37"/>
+      <c r="A215" s="29"/>
       <c r="B215" s="9" t="s">
         <v>763</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="I215" s="11"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
+      <c r="A216" s="29"/>
       <c r="B216" s="9" t="s">
         <v>764</v>
       </c>
@@ -8757,7 +8757,7 @@
       <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="37"/>
+      <c r="A217" s="29"/>
       <c r="B217" s="9" t="s">
         <v>765</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="I217" s="11"/>
     </row>
     <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="37"/>
+      <c r="A218" s="29"/>
       <c r="B218" s="9" t="s">
         <v>766</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="I218" s="11"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="37"/>
+      <c r="A219" s="29"/>
       <c r="B219" s="9" t="s">
         <v>767</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="I219" s="11"/>
     </row>
     <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="37"/>
+      <c r="A220" s="29"/>
       <c r="B220" s="9" t="s">
         <v>768</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="I220" s="11"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
+      <c r="A221" s="29"/>
       <c r="B221" s="9"/>
       <c r="C221" s="10" t="s">
         <v>899</v>
@@ -8870,7 +8870,7 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
+      <c r="A222" s="29"/>
       <c r="B222" s="9" t="s">
         <v>769</v>
       </c>
@@ -8893,7 +8893,7 @@
       <c r="I222" s="11"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
+      <c r="A223" s="29"/>
       <c r="B223" s="9" t="s">
         <v>770</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="I223" s="11"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
+      <c r="A224" s="29"/>
       <c r="B224" s="9" t="s">
         <v>771</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="I224" s="11"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
+      <c r="A225" s="29"/>
       <c r="B225" s="9" t="s">
         <v>772</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="I225" s="11"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
+      <c r="A226" s="29"/>
       <c r="B226" s="9" t="s">
         <v>121</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="37"/>
+      <c r="A227" s="29"/>
       <c r="B227" s="9" t="s">
         <v>720</v>
       </c>
@@ -9004,7 +9004,7 @@
       <c r="I227" s="11"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="37"/>
+      <c r="A228" s="29"/>
       <c r="B228" s="9" t="s">
         <v>726</v>
       </c>
@@ -9027,7 +9027,7 @@
       <c r="I228" s="11"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="36" t="s">
+      <c r="A229" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -9048,10 +9048,10 @@
       <c r="I229" s="8"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
+      <c r="A230" s="29"/>
       <c r="B230" s="9"/>
       <c r="C230" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>133</v>
@@ -9067,10 +9067,10 @@
       <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
+      <c r="A231" s="29"/>
       <c r="B231" s="9"/>
       <c r="C231" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>133</v>
@@ -9086,10 +9086,10 @@
       <c r="I231" s="11"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
+      <c r="A232" s="29"/>
       <c r="B232" s="9"/>
       <c r="C232" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>133</v>
@@ -9105,10 +9105,10 @@
       <c r="I232" s="11"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
+      <c r="A233" s="29"/>
       <c r="B233" s="9"/>
       <c r="C233" s="10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>133</v>
@@ -9124,10 +9124,10 @@
       <c r="I233" s="11"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
+      <c r="A234" s="29"/>
       <c r="B234" s="9"/>
       <c r="C234" s="10" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>133</v>
@@ -9143,10 +9143,10 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
+      <c r="A235" s="29"/>
       <c r="B235" s="9"/>
       <c r="C235" s="10" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>133</v>
@@ -9162,10 +9162,10 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="37"/>
+      <c r="A236" s="29"/>
       <c r="B236" s="9"/>
       <c r="C236" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>133</v>
@@ -9181,10 +9181,10 @@
       <c r="I236" s="11"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
+      <c r="A237" s="29"/>
       <c r="B237" s="9"/>
       <c r="C237" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>133</v>
@@ -9200,10 +9200,10 @@
       <c r="I237" s="11"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
+      <c r="A238" s="29"/>
       <c r="B238" s="9"/>
       <c r="C238" s="10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>125</v>
@@ -9219,10 +9219,10 @@
       <c r="I238" s="11"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
+      <c r="A239" s="29"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -9234,10 +9234,10 @@
       <c r="I239" s="11"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="9"/>
       <c r="C240" s="10" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -9249,10 +9249,10 @@
       <c r="I240" s="11"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
+      <c r="A241" s="29"/>
       <c r="B241" s="9"/>
       <c r="C241" s="10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>125</v>
@@ -9268,10 +9268,10 @@
       <c r="I241" s="11"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
+      <c r="A242" s="29"/>
       <c r="B242" s="9"/>
       <c r="C242" s="10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9">
@@ -9285,10 +9285,10 @@
       <c r="I242" s="11"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
+      <c r="A243" s="29"/>
       <c r="B243" s="9"/>
       <c r="C243" s="10" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9">
@@ -9302,10 +9302,10 @@
       <c r="I243" s="11"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
+      <c r="A244" s="29"/>
       <c r="B244" s="9"/>
       <c r="C244" s="10" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9">
@@ -9319,10 +9319,10 @@
       <c r="I244" s="11"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
+      <c r="A245" s="29"/>
       <c r="B245" s="9"/>
       <c r="C245" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
@@ -9336,10 +9336,10 @@
       <c r="I245" s="11"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="37"/>
+      <c r="A246" s="29"/>
       <c r="B246" s="9"/>
       <c r="C246" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -9351,10 +9351,10 @@
       <c r="I246" s="11"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
+      <c r="A247" s="29"/>
       <c r="B247" s="9"/>
       <c r="C247" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -9366,10 +9366,10 @@
       <c r="I247" s="11"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
+      <c r="A248" s="29"/>
       <c r="B248" s="9"/>
       <c r="C248" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -9381,10 +9381,10 @@
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
+      <c r="A249" s="29"/>
       <c r="B249" s="9"/>
       <c r="C249" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9">
@@ -9398,12 +9398,12 @@
       <c r="I249" s="11"/>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9">
@@ -9417,7 +9417,7 @@
       <c r="I250" s="11"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
+      <c r="A251" s="29"/>
       <c r="B251" s="9" t="s">
         <v>130</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="I251" s="11"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
+      <c r="A252" s="29"/>
       <c r="B252" s="9" t="s">
         <v>121</v>
       </c>
@@ -9459,7 +9459,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="38"/>
+      <c r="A253" s="30"/>
       <c r="B253" s="12" t="s">
         <v>130</v>
       </c>
@@ -9491,6 +9491,11 @@
     <mergeCell ref="A165:A180"/>
     <mergeCell ref="A181:A196"/>
     <mergeCell ref="A197:A212"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="A128:A132"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="A45:A55"/>
     <mergeCell ref="A56:A66"/>
@@ -9501,11 +9506,6 @@
     <mergeCell ref="A5:A22"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="A128:A132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9516,8 +9516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9527,48 +9527,48 @@
     <col min="3" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -9600,7 +9600,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>246</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -9627,7 +9627,7 @@
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="9" t="s">
         <v>162</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="12" t="s">
         <v>164</v>
       </c>
@@ -9677,7 +9677,7 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="28" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -9704,7 +9704,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
         <v>169</v>
       </c>
@@ -9729,7 +9729,7 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="9" t="s">
         <v>171</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>176</v>
       </c>
@@ -9804,7 +9804,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>179</v>
       </c>
@@ -9829,7 +9829,7 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="9" t="s">
         <v>181</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="12" t="s">
         <v>183</v>
       </c>
@@ -9879,7 +9879,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="28" t="s">
         <v>251</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -9909,7 +9909,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
@@ -9936,8 +9936,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
         <v>121</v>
       </c>
@@ -9962,11 +9962,11 @@
         <v>32</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>906</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="12" t="s">
         <v>121</v>
       </c>
@@ -9992,7 +9992,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -10019,7 +10019,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="9" t="s">
         <v>121</v>
       </c>
@@ -10044,7 +10044,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="9" t="s">
         <v>253</v>
       </c>
@@ -10071,7 +10071,7 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="9" t="s">
         <v>121</v>
       </c>
@@ -10093,8 +10093,8 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
       <c r="B24" s="9" t="s">
         <v>121</v>
       </c>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H24" s="9">
         <v>122</v>
@@ -10121,7 +10121,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="12" t="s">
         <v>121</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="28" t="s">
         <v>242</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -10173,7 +10173,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="9" t="s">
         <v>195</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="9" t="s">
         <v>197</v>
       </c>
@@ -10223,7 +10223,7 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="9" t="s">
         <v>199</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
@@ -10270,8 +10270,8 @@
       </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -10297,8 +10297,8 @@
       </c>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
       <c r="B32" s="9" t="s">
         <v>204</v>
       </c>
@@ -10322,8 +10322,8 @@
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
       <c r="B33" s="9" t="s">
         <v>206</v>
       </c>
@@ -10347,8 +10347,8 @@
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
       <c r="B34" s="9" t="s">
         <v>208</v>
       </c>
@@ -10372,8 +10372,8 @@
       </c>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
       <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
@@ -10395,8 +10395,8 @@
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -10427,8 +10427,8 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
       <c r="B37" s="9" t="s">
         <v>212</v>
       </c>
@@ -10454,8 +10454,8 @@
       </c>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
       <c r="B38" s="9" t="s">
         <v>213</v>
       </c>
@@ -10481,8 +10481,8 @@
       </c>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
         <v>215</v>
       </c>
@@ -10508,8 +10508,8 @@
       </c>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
       <c r="B40" s="12" t="s">
         <v>31</v>
       </c>
@@ -10533,8 +10533,8 @@
       </c>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>261</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -10565,8 +10565,8 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>218</v>
       </c>
@@ -10592,8 +10592,8 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
       <c r="B43" s="9" t="s">
         <v>219</v>
       </c>
@@ -10619,8 +10619,8 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
       <c r="B44" s="9" t="s">
         <v>220</v>
       </c>
@@ -10646,8 +10646,8 @@
       </c>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
       <c r="B45" s="12" t="s">
         <v>31</v>
       </c>
@@ -10671,8 +10671,8 @@
       </c>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>264</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -10700,8 +10700,8 @@
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
       <c r="B47" s="9" t="s">
         <v>297</v>
       </c>
@@ -10727,8 +10727,8 @@
       </c>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
       <c r="B48" s="9" t="s">
         <v>298</v>
       </c>
@@ -10754,8 +10754,8 @@
       </c>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
       <c r="B49" s="9" t="s">
         <v>299</v>
       </c>
@@ -10781,8 +10781,8 @@
       </c>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
       <c r="B50" s="12" t="s">
         <v>31</v>
       </c>
@@ -10806,8 +10806,8 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>269</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -10835,8 +10835,8 @@
       </c>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
       <c r="B52" s="9" t="s">
         <v>293</v>
       </c>
@@ -10862,8 +10862,8 @@
       </c>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
       <c r="B53" s="9" t="s">
         <v>294</v>
       </c>
@@ -10889,8 +10889,8 @@
       </c>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
       <c r="B54" s="9" t="s">
         <v>295</v>
       </c>
@@ -10916,8 +10916,8 @@
       </c>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
       <c r="B55" s="12" t="s">
         <v>31</v>
       </c>
@@ -10941,8 +10941,8 @@
       </c>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
         <v>274</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -10970,8 +10970,8 @@
       </c>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
       <c r="B57" s="9" t="s">
         <v>289</v>
       </c>
@@ -10997,8 +10997,8 @@
       </c>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
       <c r="B58" s="9" t="s">
         <v>290</v>
       </c>
@@ -11024,8 +11024,8 @@
       </c>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
       <c r="B59" s="9" t="s">
         <v>291</v>
       </c>
@@ -11051,8 +11051,8 @@
       </c>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
       <c r="B60" s="12" t="s">
         <v>31</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="28" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -11106,7 +11106,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="9" t="s">
         <v>285</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="9" t="s">
         <v>286</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="9" t="s">
         <v>287</v>
       </c>
@@ -11187,7 +11187,7 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="12" t="s">
         <v>31</v>
       </c>
@@ -11212,7 +11212,7 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="28" t="s">
         <v>522</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -11243,7 +11243,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="9" t="s">
         <v>302</v>
       </c>
@@ -11270,7 +11270,7 @@
       <c r="I67" s="42"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="9" t="s">
         <v>304</v>
       </c>
@@ -11297,7 +11297,7 @@
       <c r="I68" s="42"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="9" t="s">
         <v>306</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="I69" s="42"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="9" t="s">
         <v>31</v>
       </c>
@@ -11349,7 +11349,7 @@
       <c r="I70" s="42"/>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="29" t="s">
         <v>523</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -11378,7 +11378,7 @@
       <c r="I71" s="42"/>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="9" t="s">
         <v>310</v>
       </c>
@@ -11405,7 +11405,7 @@
       <c r="I72" s="42"/>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="9" t="s">
         <v>312</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="I73" s="42"/>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="9" t="s">
         <v>314</v>
       </c>
@@ -11459,7 +11459,7 @@
       <c r="I74" s="42"/>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="9" t="s">
         <v>31</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="I75" s="42"/>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="29" t="s">
         <v>524</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -11513,7 +11513,7 @@
       <c r="I76" s="42"/>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="9" t="s">
         <v>318</v>
       </c>
@@ -11540,7 +11540,7 @@
       <c r="I77" s="42"/>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="9" t="s">
         <v>320</v>
       </c>
@@ -11567,7 +11567,7 @@
       <c r="I78" s="42"/>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="9" t="s">
         <v>322</v>
       </c>
@@ -11594,7 +11594,7 @@
       <c r="I79" s="42"/>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="9" t="s">
         <v>31</v>
       </c>
@@ -11619,7 +11619,7 @@
       <c r="I80" s="42"/>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="29" t="s">
         <v>525</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -11648,7 +11648,7 @@
       <c r="I81" s="42"/>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="9" t="s">
         <v>326</v>
       </c>
@@ -11675,7 +11675,7 @@
       <c r="I82" s="42"/>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="9" t="s">
         <v>328</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="I83" s="42"/>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="9" t="s">
         <v>330</v>
       </c>
@@ -11729,7 +11729,7 @@
       <c r="I84" s="42"/>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="9" t="s">
         <v>31</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="I85" s="42"/>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="29" t="s">
         <v>526</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -11783,7 +11783,7 @@
       <c r="I86" s="42"/>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="9" t="s">
         <v>334</v>
       </c>
@@ -11810,7 +11810,7 @@
       <c r="I87" s="42"/>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="9" t="s">
         <v>336</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="I88" s="42"/>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="9" t="s">
         <v>338</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="I89" s="42"/>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="9" t="s">
         <v>31</v>
       </c>
@@ -11889,7 +11889,7 @@
       <c r="I90" s="42"/>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="29" t="s">
         <v>527</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -11918,7 +11918,7 @@
       <c r="I91" s="42"/>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="9" t="s">
         <v>342</v>
       </c>
@@ -11945,7 +11945,7 @@
       <c r="I92" s="42"/>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="9" t="s">
         <v>344</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="I93" s="42"/>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="9" t="s">
         <v>346</v>
       </c>
@@ -11999,7 +11999,7 @@
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="9" t="s">
         <v>31</v>
       </c>
@@ -12024,7 +12024,7 @@
       <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+      <c r="A96" s="29" t="s">
         <v>528</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -12053,7 +12053,7 @@
       <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="9" t="s">
         <v>350</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="9" t="s">
         <v>352</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="9" t="s">
         <v>354</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="9" t="s">
         <v>31</v>
       </c>
@@ -12159,7 +12159,7 @@
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="29" t="s">
         <v>529</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -12188,7 +12188,7 @@
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="9" t="s">
         <v>358</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="9" t="s">
         <v>360</v>
       </c>
@@ -12242,7 +12242,7 @@
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="9" t="s">
         <v>362</v>
       </c>
@@ -12269,7 +12269,7 @@
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="9" t="s">
         <v>31</v>
       </c>
@@ -12297,7 +12297,7 @@
       <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="29" t="s">
         <v>530</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -12326,7 +12326,7 @@
       <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="9" t="s">
         <v>366</v>
       </c>
@@ -12353,7 +12353,7 @@
       <c r="I107" s="42"/>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="9" t="s">
         <v>368</v>
       </c>
@@ -12380,7 +12380,7 @@
       <c r="I108" s="42"/>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="9" t="s">
         <v>370</v>
       </c>
@@ -12407,7 +12407,7 @@
       <c r="I109" s="42"/>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="9" t="s">
         <v>31</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="I110" s="42"/>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -12461,7 +12461,7 @@
       <c r="I111" s="42"/>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="9" t="s">
         <v>374</v>
       </c>
@@ -12488,7 +12488,7 @@
       <c r="I112" s="42"/>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="9" t="s">
         <v>376</v>
       </c>
@@ -12515,7 +12515,7 @@
       <c r="I113" s="42"/>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="9" t="s">
         <v>378</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="I114" s="42"/>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="9" t="s">
         <v>31</v>
       </c>
@@ -12567,7 +12567,7 @@
       <c r="I115" s="42"/>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="29" t="s">
         <v>532</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -12596,7 +12596,7 @@
       <c r="I116" s="42"/>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="9" t="s">
         <v>382</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="I117" s="42"/>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="9" t="s">
         <v>384</v>
       </c>
@@ -12650,7 +12650,7 @@
       <c r="I118" s="42"/>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="9" t="s">
         <v>386</v>
       </c>
@@ -12677,7 +12677,7 @@
       <c r="I119" s="42"/>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="9" t="s">
         <v>31</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="I120" s="42"/>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="29" t="s">
         <v>533</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -12731,7 +12731,7 @@
       <c r="I121" s="42"/>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="9" t="s">
         <v>390</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="I122" s="42"/>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="9" t="s">
         <v>392</v>
       </c>
@@ -12785,7 +12785,7 @@
       <c r="I123" s="42"/>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="9" t="s">
         <v>394</v>
       </c>
@@ -12812,7 +12812,7 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="9" t="s">
         <v>31</v>
       </c>
@@ -12837,7 +12837,7 @@
       <c r="I125" s="42"/>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="29" t="s">
         <v>534</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -12866,7 +12866,7 @@
       <c r="I126" s="42"/>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="9" t="s">
         <v>398</v>
       </c>
@@ -12893,7 +12893,7 @@
       <c r="I127" s="42"/>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="9" t="s">
         <v>400</v>
       </c>
@@ -12920,7 +12920,7 @@
       <c r="I128" s="42"/>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="9" t="s">
         <v>402</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="I129" s="42"/>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="9" t="s">
         <v>31</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="I130" s="42"/>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="29" t="s">
         <v>535</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -13001,7 +13001,7 @@
       <c r="I131" s="42"/>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="9" t="s">
         <v>406</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="I132" s="42"/>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="9" t="s">
         <v>408</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="I133" s="42"/>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="9" t="s">
         <v>410</v>
       </c>
@@ -13082,7 +13082,7 @@
       <c r="I134" s="42"/>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="9" t="s">
         <v>31</v>
       </c>
@@ -13107,7 +13107,7 @@
       <c r="I135" s="42"/>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="29" t="s">
         <v>536</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -13136,7 +13136,7 @@
       <c r="I136" s="42"/>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="9" t="s">
         <v>414</v>
       </c>
@@ -13163,7 +13163,7 @@
       <c r="I137" s="42"/>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="9" t="s">
         <v>416</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="I138" s="42"/>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="9" t="s">
         <v>418</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="I139" s="42"/>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="9" t="s">
         <v>31</v>
       </c>
@@ -13242,7 +13242,7 @@
       <c r="I140" s="42"/>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="29" t="s">
         <v>537</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -13271,7 +13271,7 @@
       <c r="I141" s="42"/>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="9" t="s">
         <v>422</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="I142" s="42"/>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="9" t="s">
         <v>424</v>
       </c>
@@ -13325,7 +13325,7 @@
       <c r="I143" s="42"/>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="9" t="s">
         <v>426</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="I144" s="42"/>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="9" t="s">
         <v>31</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="I145" s="42"/>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="29" t="s">
         <v>538</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -13406,7 +13406,7 @@
       <c r="I146" s="42"/>
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="9" t="s">
         <v>430</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="I147" s="42"/>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="37"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="9" t="s">
         <v>432</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="I148" s="42"/>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="9" t="s">
         <v>434</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="I149" s="42"/>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="9" t="s">
         <v>31</v>
       </c>
@@ -13512,7 +13512,7 @@
       <c r="I150" s="42"/>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37" t="s">
+      <c r="A151" s="29" t="s">
         <v>539</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -13541,7 +13541,7 @@
       <c r="I151" s="42"/>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="9" t="s">
         <v>438</v>
       </c>
@@ -13568,7 +13568,7 @@
       <c r="I152" s="42"/>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="9" t="s">
         <v>440</v>
       </c>
@@ -13595,7 +13595,7 @@
       <c r="I153" s="42"/>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="9" t="s">
         <v>442</v>
       </c>
@@ -13622,7 +13622,7 @@
       <c r="I154" s="42"/>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="9" t="s">
         <v>31</v>
       </c>
@@ -13647,7 +13647,7 @@
       <c r="I155" s="42"/>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="29" t="s">
         <v>540</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -13676,7 +13676,7 @@
       <c r="I156" s="42"/>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="9" t="s">
         <v>446</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="I157" s="42"/>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="9" t="s">
         <v>448</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="I158" s="42"/>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="9" t="s">
         <v>450</v>
       </c>
@@ -13757,7 +13757,7 @@
       <c r="I159" s="42"/>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="9" t="s">
         <v>31</v>
       </c>
@@ -13782,7 +13782,7 @@
       <c r="I160" s="42"/>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="37" t="s">
+      <c r="A161" s="29" t="s">
         <v>541</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -13811,7 +13811,7 @@
       <c r="I161" s="42"/>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="37"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="9" t="s">
         <v>454</v>
       </c>
@@ -13838,7 +13838,7 @@
       <c r="I162" s="42"/>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="37"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="9" t="s">
         <v>456</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="I163" s="42"/>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="9" t="s">
         <v>458</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="I164" s="42"/>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="37"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="9" t="s">
         <v>31</v>
       </c>
@@ -13917,7 +13917,7 @@
       <c r="I165" s="42"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37" t="s">
+      <c r="A166" s="29" t="s">
         <v>542</v>
       </c>
       <c r="B166" s="9" t="s">
@@ -13946,7 +13946,7 @@
       <c r="I166" s="42"/>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="37"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="9" t="s">
         <v>462</v>
       </c>
@@ -13973,7 +13973,7 @@
       <c r="I167" s="42"/>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="9" t="s">
         <v>464</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="I168" s="42"/>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="37"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="9" t="s">
         <v>466</v>
       </c>
@@ -14030,7 +14030,7 @@
       <c r="I169" s="42"/>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="37"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="9" t="s">
         <v>31</v>
       </c>
@@ -14055,7 +14055,7 @@
       <c r="I170" s="42"/>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="29" t="s">
         <v>543</v>
       </c>
       <c r="B171" s="9" t="s">
@@ -14084,7 +14084,7 @@
       <c r="I171" s="42"/>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="37"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="9" t="s">
         <v>470</v>
       </c>
@@ -14111,7 +14111,7 @@
       <c r="I172" s="42"/>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="37"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="9" t="s">
         <v>472</v>
       </c>
@@ -14138,7 +14138,7 @@
       <c r="I173" s="42"/>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="37"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="9" t="s">
         <v>474</v>
       </c>
@@ -14165,7 +14165,7 @@
       <c r="I174" s="42"/>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="37"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="9" t="s">
         <v>31</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="I175" s="42"/>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="29" t="s">
         <v>544</v>
       </c>
       <c r="B176" s="9" t="s">
@@ -14219,7 +14219,7 @@
       <c r="I176" s="42"/>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="37"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="9" t="s">
         <v>478</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="I177" s="42"/>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="9" t="s">
         <v>480</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="I178" s="42"/>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="37"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="9" t="s">
         <v>482</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="I179" s="42"/>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="37"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="9" t="s">
         <v>31</v>
       </c>
@@ -14325,7 +14325,7 @@
       <c r="I180" s="42"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="29" t="s">
         <v>545</v>
       </c>
       <c r="B181" s="9" t="s">
@@ -14354,7 +14354,7 @@
       <c r="I181" s="42"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="37"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="9" t="s">
         <v>486</v>
       </c>
@@ -14381,7 +14381,7 @@
       <c r="I182" s="42"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="37"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="9" t="s">
         <v>488</v>
       </c>
@@ -14408,7 +14408,7 @@
       <c r="I183" s="42"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="37"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="9" t="s">
         <v>490</v>
       </c>
@@ -14435,7 +14435,7 @@
       <c r="I184" s="42"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
+      <c r="A185" s="30"/>
       <c r="B185" s="12" t="s">
         <v>31</v>
       </c>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I185" s="43"/>
     </row>
-    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="17" t="s">
         <v>130</v>
@@ -14484,8 +14484,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="36" t="s">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="28" t="s">
         <v>686</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -14511,7 +14511,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="37"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="9" t="s">
         <v>121</v>
       </c>
@@ -14535,7 +14535,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="37"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="9" t="s">
         <v>493</v>
       </c>
@@ -14559,7 +14559,7 @@
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="9" t="s">
         <v>749</v>
       </c>
@@ -14587,7 +14587,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="9" t="s">
         <v>496</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="9" t="s">
         <v>497</v>
       </c>
@@ -14639,7 +14639,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="37"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="9" t="s">
         <v>685</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H193" s="9">
         <v>521</v>
@@ -14661,7 +14661,7 @@
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="37"/>
+      <c r="A194" s="29"/>
       <c r="B194" s="9" t="s">
         <v>683</v>
       </c>
@@ -14684,8 +14684,8 @@
       </c>
       <c r="I194" s="11"/>
     </row>
-    <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A195" s="38"/>
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="30"/>
       <c r="B195" s="12" t="s">
         <v>685</v>
       </c>
@@ -14703,76 +14703,76 @@
         <v>964</v>
       </c>
       <c r="I195" s="14" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="28"/>
-      <c r="I196" s="29"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="34"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="31"/>
-      <c r="I197" s="32"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="37"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="32"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="37"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="30" t="s">
+      <c r="A199" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="32"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="36"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="37"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="35"/>
-    </row>
-    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A201" s="36" t="s">
+      <c r="B200" s="39"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="39"/>
+      <c r="I200" s="40"/>
+    </row>
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="28" t="s">
         <v>687</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -14793,7 +14793,7 @@
         <v>19</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H201" s="6">
         <f>H195+E195</f>
@@ -14804,7 +14804,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="9" t="s">
         <v>121</v>
       </c>
@@ -14829,7 +14829,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
+      <c r="A203" s="29"/>
       <c r="B203" s="9" t="s">
         <v>493</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="I203" s="11"/>
     </row>
     <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
+      <c r="A204" s="29"/>
       <c r="B204" s="9" t="s">
         <v>749</v>
       </c>
@@ -14883,7 +14883,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
+      <c r="A205" s="29"/>
       <c r="B205" s="9" t="s">
         <v>496</v>
       </c>
@@ -14910,7 +14910,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="9" t="s">
         <v>497</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
+      <c r="A207" s="29"/>
       <c r="B207" s="9" t="s">
         <v>685</v>
       </c>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H207" s="9">
         <f t="shared" si="13"/>
@@ -14960,7 +14960,7 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
+      <c r="A208" s="29"/>
       <c r="B208" s="9" t="s">
         <v>683</v>
       </c>
@@ -14984,8 +14984,8 @@
       </c>
       <c r="I208" s="11"/>
     </row>
-    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="38"/>
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="30"/>
       <c r="B209" s="12" t="s">
         <v>685</v>
       </c>
@@ -15004,11 +15004,11 @@
         <v>1476</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A210" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="28" t="s">
         <v>688</v>
       </c>
       <c r="B210" s="6" t="s">
@@ -15038,7 +15038,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="9" t="s">
         <v>121</v>
       </c>
@@ -15063,7 +15063,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="37"/>
+      <c r="A212" s="29"/>
       <c r="B212" s="9" t="s">
         <v>493</v>
       </c>
@@ -15088,7 +15088,7 @@
       <c r="I212" s="11"/>
     </row>
     <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
+      <c r="A213" s="29"/>
       <c r="B213" s="9" t="s">
         <v>749</v>
       </c>
@@ -15117,7 +15117,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="9" t="s">
         <v>496</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="37"/>
+      <c r="A215" s="29"/>
       <c r="B215" s="9" t="s">
         <v>497</v>
       </c>
@@ -15171,7 +15171,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
+      <c r="A216" s="29"/>
       <c r="B216" s="9" t="s">
         <v>685</v>
       </c>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H216" s="9">
         <f t="shared" si="15"/>
@@ -15194,7 +15194,7 @@
       <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="37"/>
+      <c r="A217" s="29"/>
       <c r="B217" s="9" t="s">
         <v>683</v>
       </c>
@@ -15218,8 +15218,8 @@
       </c>
       <c r="I217" s="11"/>
     </row>
-    <row r="218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A218" s="38"/>
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="30"/>
       <c r="B218" s="12" t="s">
         <v>685</v>
       </c>
@@ -15238,11 +15238,11 @@
         <v>1988</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A219" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="28" t="s">
         <v>689</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -15269,7 +15269,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="37"/>
+      <c r="A220" s="29"/>
       <c r="B220" s="9" t="s">
         <v>121</v>
       </c>
@@ -15294,7 +15294,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
+      <c r="A221" s="29"/>
       <c r="B221" s="9" t="s">
         <v>493</v>
       </c>
@@ -15319,7 +15319,7 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
+      <c r="A222" s="29"/>
       <c r="B222" s="9" t="s">
         <v>749</v>
       </c>
@@ -15348,7 +15348,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
+      <c r="A223" s="29"/>
       <c r="B223" s="9" t="s">
         <v>496</v>
       </c>
@@ -15375,7 +15375,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
+      <c r="A224" s="29"/>
       <c r="B224" s="9" t="s">
         <v>497</v>
       </c>
@@ -15402,7 +15402,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
+      <c r="A225" s="29"/>
       <c r="B225" s="9" t="s">
         <v>685</v>
       </c>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H225" s="9">
         <f t="shared" si="16"/>
@@ -15425,7 +15425,7 @@
       <c r="I225" s="11"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
+      <c r="A226" s="29"/>
       <c r="B226" s="9" t="s">
         <v>683</v>
       </c>
@@ -15449,8 +15449,8 @@
       </c>
       <c r="I226" s="11"/>
     </row>
-    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="38"/>
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="30"/>
       <c r="B227" s="12" t="s">
         <v>685</v>
       </c>
@@ -15469,11 +15469,11 @@
         <v>2500</v>
       </c>
       <c r="I227" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A228" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="28" t="s">
         <v>690</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -15500,7 +15500,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="37"/>
+      <c r="A229" s="29"/>
       <c r="B229" s="9" t="s">
         <v>121</v>
       </c>
@@ -15525,7 +15525,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
+      <c r="A230" s="29"/>
       <c r="B230" s="9" t="s">
         <v>493</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
+      <c r="A231" s="29"/>
       <c r="B231" s="9" t="s">
         <v>749</v>
       </c>
@@ -15579,7 +15579,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
+      <c r="A232" s="29"/>
       <c r="B232" s="9" t="s">
         <v>496</v>
       </c>
@@ -15606,7 +15606,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
+      <c r="A233" s="29"/>
       <c r="B233" s="9" t="s">
         <v>497</v>
       </c>
@@ -15633,7 +15633,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
+      <c r="A234" s="29"/>
       <c r="B234" s="9" t="s">
         <v>685</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H234" s="9">
         <f t="shared" si="17"/>
@@ -15656,7 +15656,7 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
+      <c r="A235" s="29"/>
       <c r="B235" s="9" t="s">
         <v>683</v>
       </c>
@@ -15680,8 +15680,8 @@
       </c>
       <c r="I235" s="11"/>
     </row>
-    <row r="236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A236" s="38"/>
+    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="30"/>
       <c r="B236" s="12" t="s">
         <v>685</v>
       </c>
@@ -15700,11 +15700,11 @@
         <v>3012</v>
       </c>
       <c r="I236" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A237" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="28" t="s">
         <v>691</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -15731,7 +15731,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
+      <c r="A238" s="29"/>
       <c r="B238" s="9" t="s">
         <v>121</v>
       </c>
@@ -15756,7 +15756,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
+      <c r="A239" s="29"/>
       <c r="B239" s="9" t="s">
         <v>493</v>
       </c>
@@ -15781,7 +15781,7 @@
       <c r="I239" s="11"/>
     </row>
     <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="9" t="s">
         <v>749</v>
       </c>
@@ -15810,7 +15810,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
+      <c r="A241" s="29"/>
       <c r="B241" s="9" t="s">
         <v>496</v>
       </c>
@@ -15837,7 +15837,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
+      <c r="A242" s="29"/>
       <c r="B242" s="9" t="s">
         <v>497</v>
       </c>
@@ -15864,7 +15864,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
+      <c r="A243" s="29"/>
       <c r="B243" s="9" t="s">
         <v>685</v>
       </c>
@@ -15878,7 +15878,7 @@
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H243" s="9">
         <f t="shared" si="18"/>
@@ -15887,7 +15887,7 @@
       <c r="I243" s="11"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
+      <c r="A244" s="29"/>
       <c r="B244" s="9" t="s">
         <v>683</v>
       </c>
@@ -15911,8 +15911,8 @@
       </c>
       <c r="I244" s="11"/>
     </row>
-    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A245" s="38"/>
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="30"/>
       <c r="B245" s="12" t="s">
         <v>685</v>
       </c>
@@ -15931,11 +15931,11 @@
         <v>3524</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A246" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="28" t="s">
         <v>692</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -15962,7 +15962,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
+      <c r="A247" s="29"/>
       <c r="B247" s="9" t="s">
         <v>121</v>
       </c>
@@ -15987,7 +15987,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
+      <c r="A248" s="29"/>
       <c r="B248" s="9" t="s">
         <v>493</v>
       </c>
@@ -16012,7 +16012,7 @@
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
+      <c r="A249" s="29"/>
       <c r="B249" s="9" t="s">
         <v>749</v>
       </c>
@@ -16041,7 +16041,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="9" t="s">
         <v>496</v>
       </c>
@@ -16068,7 +16068,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
+      <c r="A251" s="29"/>
       <c r="B251" s="9" t="s">
         <v>497</v>
       </c>
@@ -16095,7 +16095,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
+      <c r="A252" s="29"/>
       <c r="B252" s="9" t="s">
         <v>685</v>
       </c>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H252" s="9">
         <f t="shared" si="19"/>
@@ -16118,7 +16118,7 @@
       <c r="I252" s="11"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="37"/>
+      <c r="A253" s="29"/>
       <c r="B253" s="9" t="s">
         <v>683</v>
       </c>
@@ -16142,8 +16142,8 @@
       </c>
       <c r="I253" s="11"/>
     </row>
-    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A254" s="38"/>
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="30"/>
       <c r="B254" s="12" t="s">
         <v>685</v>
       </c>
@@ -16162,11 +16162,11 @@
         <v>4036</v>
       </c>
       <c r="I254" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A255" s="36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="28" t="s">
         <v>693</v>
       </c>
       <c r="B255" s="6" t="s">
@@ -16196,7 +16196,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="37"/>
+      <c r="A256" s="29"/>
       <c r="B256" s="9" t="s">
         <v>121</v>
       </c>
@@ -16221,7 +16221,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="37"/>
+      <c r="A257" s="29"/>
       <c r="B257" s="9" t="s">
         <v>493</v>
       </c>
@@ -16246,7 +16246,7 @@
       <c r="I257" s="11"/>
     </row>
     <row r="258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A258" s="37"/>
+      <c r="A258" s="29"/>
       <c r="B258" s="9" t="s">
         <v>749</v>
       </c>
@@ -16275,7 +16275,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
+      <c r="A259" s="29"/>
       <c r="B259" s="9" t="s">
         <v>496</v>
       </c>
@@ -16302,7 +16302,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="37"/>
+      <c r="A260" s="29"/>
       <c r="B260" s="9" t="s">
         <v>497</v>
       </c>
@@ -16329,7 +16329,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
+      <c r="A261" s="29"/>
       <c r="B261" s="9" t="s">
         <v>685</v>
       </c>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="F261" s="9"/>
       <c r="G261" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H261" s="9">
         <f t="shared" si="21"/>
@@ -16352,7 +16352,7 @@
       <c r="I261" s="11"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
+      <c r="A262" s="29"/>
       <c r="B262" s="9" t="s">
         <v>683</v>
       </c>
@@ -16376,8 +16376,8 @@
       </c>
       <c r="I262" s="11"/>
     </row>
-    <row r="263" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="38"/>
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="30"/>
       <c r="B263" s="12" t="s">
         <v>685</v>
       </c>
@@ -16396,11 +16396,11 @@
         <v>4548</v>
       </c>
       <c r="I263" s="14" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="36" t="s">
+      <c r="A264" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -16422,7 +16422,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="37"/>
+      <c r="A265" s="29"/>
       <c r="B265" s="9" t="s">
         <v>121</v>
       </c>
@@ -16438,8 +16438,8 @@
       </c>
       <c r="I265" s="11"/>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="37"/>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="29"/>
       <c r="B266" s="9" t="s">
         <v>121</v>
       </c>
@@ -16457,8 +16457,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="38"/>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="30"/>
       <c r="B267" s="12" t="s">
         <v>130</v>
       </c>
@@ -16552,16 +16552,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>908</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16569,7 +16569,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16585,7 +16585,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16647,7 +16647,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16655,7 +16655,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16663,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16671,29 +16671,29 @@
         <v>0</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>917</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>908</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -16755,7 +16755,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -16763,7 +16763,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16797,29 +16797,29 @@
         <v>0</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B41" s="45"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>908</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16827,7 +16827,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16835,7 +16835,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16843,7 +16843,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16857,7 +16857,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16895,7 +16895,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16903,7 +16903,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16911,7 +16911,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16919,7 +16919,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -16935,15 +16935,15 @@
         <v>0</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>

--- a/FullSpecModbusMap.xlsx
+++ b/FullSpecModbusMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Holding Registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="988">
   <si>
     <t>Read Command = 0x03</t>
   </si>
@@ -1577,9 +1577,6 @@
   </si>
   <si>
     <t>0x8000 0x0000</t>
-  </si>
-  <si>
-    <t>0x8400 0x0000</t>
   </si>
   <si>
     <t>All not-a-number (0xFFFF or 0x7FC0)</t>
@@ -3123,6 +3120,21 @@
   </si>
   <si>
     <t>A ascii character string with a date.. Unknown what the date is for (warranty expiration date? firmware update date? gate last factory serviced?).  Spectro::lyzer only (not ana::gate)</t>
+  </si>
+  <si>
+    <t>All 0x20 (" ")</t>
+  </si>
+  <si>
+    <t>0x4D61</t>
+  </si>
+  <si>
+    <t>0x0000 or 0x0002</t>
+  </si>
+  <si>
+    <t>0x8400 0x0000 or 0x8400 0x0001</t>
+  </si>
+  <si>
+    <t>All not-a-number (0xFFFF or 0x7FC0) or 0's</t>
   </si>
 </sst>
 </file>
@@ -3375,9 +3387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3386,9 +3395,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3416,6 +3422,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -3714,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,48 +3740,48 @@
     <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3801,14 +3813,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -3828,7 +3840,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
@@ -3853,7 +3865,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -3878,7 +3890,7 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3903,12 +3915,12 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>13</v>
@@ -3928,12 +3940,12 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
@@ -3951,16 +3963,16 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
@@ -3980,12 +3992,12 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
@@ -4003,11 +4015,11 @@
         <v>12</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
@@ -4030,16 +4042,16 @@
         <v>13</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>10</v>
@@ -4057,16 +4069,16 @@
         <v>14</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>10</v>
@@ -4084,16 +4096,16 @@
         <v>15</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>48</v>
@@ -4111,11 +4123,11 @@
         <v>16</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
@@ -4138,11 +4150,11 @@
         <v>22</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>50</v>
       </c>
@@ -4165,11 +4177,11 @@
         <v>23</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4192,16 +4204,16 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>10</v>
@@ -4223,12 +4235,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>10</v>
@@ -4250,12 +4262,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>32</v>
@@ -4271,18 +4283,18 @@
         <v>27</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>222</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>54</v>
@@ -4302,12 +4314,12 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
@@ -4327,7 +4339,7 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="9" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +4364,7 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="9" t="s">
         <v>57</v>
       </c>
@@ -4377,7 +4389,7 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="9" t="s">
         <v>77</v>
       </c>
@@ -4400,7 +4412,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>500</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H28" s="9">
         <v>134</v>
@@ -4425,7 +4437,7 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
@@ -4444,11 +4456,11 @@
         <v>142</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
@@ -4467,16 +4479,16 @@
         <v>146</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>133</v>
@@ -4494,7 +4506,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9" t="s">
         <v>77</v>
       </c>
@@ -4513,11 +4525,11 @@
         <v>148</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="12" t="s">
         <v>77</v>
       </c>
@@ -4538,14 +4550,14 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>223</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>54</v>
@@ -4565,12 +4577,12 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>54</v>
@@ -4590,12 +4602,12 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>125</v>
@@ -4615,12 +4627,12 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>125</v>
@@ -4640,12 +4652,12 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>126</v>
@@ -4659,16 +4671,16 @@
         <v>252</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>502</v>
+        <v>986</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>125</v>
@@ -4680,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H39" s="9">
         <v>254</v>
@@ -4688,12 +4700,12 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>125</v>
@@ -4707,16 +4719,16 @@
         <v>262</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>503</v>
+        <v>987</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>133</v>
@@ -4730,16 +4742,16 @@
         <v>266</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>133</v>
@@ -4755,12 +4767,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>125</v>
@@ -4774,16 +4786,16 @@
         <v>268</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12">
@@ -4799,14 +4811,14 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>224</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>54</v>
@@ -4826,12 +4838,12 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>54</v>
@@ -4851,12 +4863,12 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>125</v>
@@ -4876,12 +4888,12 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>125</v>
@@ -4901,12 +4913,12 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>126</v>
@@ -4920,16 +4932,16 @@
         <v>372</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>125</v>
@@ -4941,7 +4953,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H50" s="9">
         <v>374</v>
@@ -4949,12 +4961,12 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>125</v>
@@ -4968,16 +4980,16 @@
         <v>382</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>133</v>
@@ -4991,16 +5003,16 @@
         <v>386</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>133</v>
@@ -5018,12 +5030,12 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>125</v>
@@ -5037,16 +5049,16 @@
         <v>388</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12">
@@ -5062,14 +5074,14 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>225</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>54</v>
@@ -5089,12 +5101,12 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>54</v>
@@ -5114,12 +5126,12 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>125</v>
@@ -5139,12 +5151,12 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>125</v>
@@ -5164,12 +5176,12 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>126</v>
@@ -5183,16 +5195,16 @@
         <v>492</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>125</v>
@@ -5204,7 +5216,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H61" s="9">
         <v>494</v>
@@ -5212,12 +5224,12 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>125</v>
@@ -5231,16 +5243,16 @@
         <v>502</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>133</v>
@@ -5254,16 +5266,16 @@
         <v>506</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>133</v>
@@ -5281,12 +5293,12 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>125</v>
@@ -5300,16 +5312,16 @@
         <v>508</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12">
@@ -5325,14 +5337,14 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>226</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>54</v>
@@ -5352,12 +5364,12 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>54</v>
@@ -5377,12 +5389,12 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>125</v>
@@ -5402,12 +5414,12 @@
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>125</v>
@@ -5427,12 +5439,12 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>126</v>
@@ -5446,16 +5458,16 @@
         <v>612</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>125</v>
@@ -5467,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H72" s="9">
         <v>614</v>
@@ -5475,12 +5487,12 @@
       <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>125</v>
@@ -5494,16 +5506,16 @@
         <v>622</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>133</v>
@@ -5517,16 +5529,16 @@
         <v>626</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>133</v>
@@ -5544,12 +5556,12 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>125</v>
@@ -5563,16 +5575,16 @@
         <v>628</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12">
@@ -5588,14 +5600,14 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>227</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>54</v>
@@ -5615,12 +5627,12 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>54</v>
@@ -5640,12 +5652,12 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>125</v>
@@ -5665,12 +5677,12 @@
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>125</v>
@@ -5690,12 +5702,12 @@
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>126</v>
@@ -5709,16 +5721,16 @@
         <v>732</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>125</v>
@@ -5730,7 +5742,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H83" s="9">
         <v>734</v>
@@ -5738,12 +5750,12 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>125</v>
@@ -5757,16 +5769,16 @@
         <v>742</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>133</v>
@@ -5784,12 +5796,12 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>133</v>
@@ -5807,12 +5819,12 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>125</v>
@@ -5826,16 +5838,16 @@
         <v>748</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12">
@@ -5851,14 +5863,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>228</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>54</v>
@@ -5878,12 +5890,12 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>54</v>
@@ -5903,12 +5915,12 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>125</v>
@@ -5928,12 +5940,12 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>125</v>
@@ -5953,12 +5965,12 @@
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>126</v>
@@ -5972,16 +5984,16 @@
         <v>852</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>125</v>
@@ -5993,7 +6005,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H94" s="9">
         <v>854</v>
@@ -6001,12 +6013,12 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>125</v>
@@ -6020,16 +6032,16 @@
         <v>862</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>133</v>
@@ -6047,12 +6059,12 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>133</v>
@@ -6070,12 +6082,12 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>125</v>
@@ -6089,16 +6101,16 @@
         <v>868</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12">
@@ -6114,14 +6126,14 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="27" t="s">
         <v>229</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>54</v>
@@ -6141,12 +6153,12 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
+      <c r="A101" s="28"/>
       <c r="B101" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>54</v>
@@ -6166,12 +6178,12 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>125</v>
@@ -6191,12 +6203,12 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>125</v>
@@ -6216,12 +6228,12 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>126</v>
@@ -6235,16 +6247,16 @@
         <v>972</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>125</v>
@@ -6256,7 +6268,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H105" s="9">
         <v>974</v>
@@ -6264,12 +6276,12 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>125</v>
@@ -6283,14 +6295,14 @@
         <v>982</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>133</v>
@@ -6308,12 +6320,12 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>133</v>
@@ -6331,12 +6343,12 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>125</v>
@@ -6350,16 +6362,16 @@
         <v>988</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12">
@@ -6375,53 +6387,53 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="34"/>
+      <c r="A111" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="32"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="37"/>
+      <c r="A112" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="35"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="40"/>
+      <c r="A113" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="38"/>
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>126</v>
@@ -6439,12 +6451,12 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>21</v>
@@ -6462,12 +6474,12 @@
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>133</v>
@@ -6477,7 +6489,7 @@
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H116" s="9">
         <v>1087</v>
@@ -6485,12 +6497,12 @@
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>133</v>
@@ -6500,7 +6512,7 @@
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H117" s="9">
         <v>1088</v>
@@ -6508,12 +6520,12 @@
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>21</v>
@@ -6529,16 +6541,16 @@
         <v>1089</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D119" s="9">
         <v>3</v>
@@ -6552,16 +6564,16 @@
         <v>1095</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>129</v>
@@ -6577,18 +6589,18 @@
         <v>1098</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6">
@@ -6604,12 +6616,12 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>129</v>
@@ -6622,15 +6634,17 @@
       <c r="H122" s="9">
         <v>1172</v>
       </c>
-      <c r="I122" s="11"/>
+      <c r="I122" s="11" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>32</v>
@@ -6648,12 +6662,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>129</v>
@@ -6669,12 +6683,12 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>126</v>
@@ -6688,16 +6702,16 @@
         <v>1208</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>32</v>
@@ -6715,12 +6729,12 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>32</v>
@@ -6738,14 +6752,14 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>133</v>
@@ -6755,22 +6769,22 @@
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H128" s="6">
         <v>1488</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
@@ -6784,12 +6798,12 @@
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>133</v>
@@ -6799,7 +6813,7 @@
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H130" s="9">
         <v>1507</v>
@@ -6807,12 +6821,12 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
+      <c r="A131" s="28"/>
       <c r="B131" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>54</v>
@@ -6830,12 +6844,12 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>48</v>
@@ -6853,14 +6867,14 @@
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="6">
@@ -6874,12 +6888,12 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>54</v>
@@ -6897,12 +6911,12 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>125</v>
@@ -6912,7 +6926,7 @@
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H135" s="9">
         <v>1523</v>
@@ -6920,12 +6934,12 @@
       <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>133</v>
@@ -6935,7 +6949,7 @@
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H136" s="9">
         <v>1525</v>
@@ -6943,12 +6957,12 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>133</v>
@@ -6958,7 +6972,7 @@
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H137" s="9">
         <v>1526</v>
@@ -6966,12 +6980,12 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="A138" s="28"/>
       <c r="B138" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>133</v>
@@ -6981,7 +6995,7 @@
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H138" s="9">
         <v>1527</v>
@@ -6989,12 +7003,12 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>133</v>
@@ -7004,7 +7018,7 @@
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H139" s="9">
         <v>1528</v>
@@ -7012,12 +7026,12 @@
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
+      <c r="A140" s="28"/>
       <c r="B140" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>13</v>
@@ -7027,7 +7041,7 @@
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H140" s="9">
         <v>1529</v>
@@ -7035,10 +7049,10 @@
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
+      <c r="A141" s="28"/>
       <c r="B141" s="9"/>
       <c r="C141" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>133</v>
@@ -7048,22 +7062,22 @@
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H141" s="9">
         <v>1530</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
+      <c r="A142" s="28"/>
       <c r="B142" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>13</v>
@@ -7073,7 +7087,7 @@
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H142" s="9">
         <v>1531</v>
@@ -7081,12 +7095,12 @@
       <c r="I142" s="11"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>133</v>
@@ -7096,7 +7110,7 @@
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H143" s="9">
         <v>1532</v>
@@ -7104,12 +7118,12 @@
       <c r="I143" s="11"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>13</v>
@@ -7119,7 +7133,7 @@
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H144" s="9">
         <v>1533</v>
@@ -7127,12 +7141,12 @@
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>133</v>
@@ -7142,7 +7156,7 @@
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H145" s="9">
         <v>1534</v>
@@ -7150,12 +7164,12 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
@@ -7169,12 +7183,12 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>48</v>
@@ -7192,12 +7206,12 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="30"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>125</v>
@@ -7207,7 +7221,7 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H148" s="9">
         <v>1542</v>
@@ -7218,15 +7232,15 @@
         <v>536</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="28" t="s">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6">
@@ -7239,13 +7253,13 @@
       </c>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="28"/>
       <c r="B150" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>54</v>
@@ -7262,13 +7276,13 @@
       </c>
       <c r="I150" s="11"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="28"/>
       <c r="B151" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>125</v>
@@ -7278,20 +7292,20 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H151" s="9">
         <v>2059</v>
       </c>
       <c r="I151" s="11"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="28"/>
       <c r="B152" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>133</v>
@@ -7301,20 +7315,20 @@
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H152" s="9">
         <v>2061</v>
       </c>
       <c r="I152" s="11"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="28"/>
       <c r="B153" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>133</v>
@@ -7324,20 +7338,20 @@
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H153" s="9">
         <v>2062</v>
       </c>
       <c r="I153" s="11"/>
     </row>
-    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
+    <row r="154" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="28"/>
       <c r="B154" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>133</v>
@@ -7347,20 +7361,20 @@
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H154" s="9">
         <v>2063</v>
       </c>
       <c r="I154" s="11"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="28"/>
       <c r="B155" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>133</v>
@@ -7370,20 +7384,20 @@
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H155" s="9">
         <v>2064</v>
       </c>
       <c r="I155" s="11"/>
     </row>
-    <row r="156" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
+    <row r="156" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="28"/>
       <c r="B156" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>13</v>
@@ -7393,18 +7407,18 @@
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H156" s="9">
         <v>2065</v>
       </c>
       <c r="I156" s="11"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="29"/>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="28"/>
       <c r="B157" s="9"/>
       <c r="C157" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>133</v>
@@ -7414,22 +7428,22 @@
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H157" s="9">
         <v>2066</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="29"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="28"/>
       <c r="B158" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>13</v>
@@ -7439,20 +7453,20 @@
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H158" s="9">
         <v>2067</v>
       </c>
       <c r="I158" s="11"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="28"/>
       <c r="B159" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>133</v>
@@ -7462,20 +7476,20 @@
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H159" s="9">
         <v>2068</v>
       </c>
       <c r="I159" s="11"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="28"/>
       <c r="B160" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>13</v>
@@ -7485,20 +7499,20 @@
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H160" s="9">
         <v>2069</v>
       </c>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="28"/>
       <c r="B161" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>133</v>
@@ -7508,20 +7522,20 @@
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H161" s="9">
         <v>2070</v>
       </c>
       <c r="I161" s="11"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="28"/>
       <c r="B162" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
@@ -7534,13 +7548,13 @@
       </c>
       <c r="I162" s="11"/>
     </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
+    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="28"/>
       <c r="B163" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>48</v>
@@ -7557,13 +7571,13 @@
       </c>
       <c r="I163" s="11"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="30"/>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29"/>
       <c r="B164" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>125</v>
@@ -7573,22 +7587,22 @@
       </c>
       <c r="F164" s="12"/>
       <c r="G164" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H164" s="9">
         <v>2078</v>
       </c>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="6">
@@ -7601,13 +7615,13 @@
       </c>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="28"/>
       <c r="B166" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>54</v>
@@ -7624,13 +7638,13 @@
       </c>
       <c r="I166" s="11"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="28"/>
       <c r="B167" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>125</v>
@@ -7640,20 +7654,20 @@
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H167" s="9">
         <v>2595</v>
       </c>
       <c r="I167" s="11"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="28"/>
       <c r="B168" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>133</v>
@@ -7663,20 +7677,20 @@
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H168" s="9">
         <v>2597</v>
       </c>
       <c r="I168" s="11"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="28"/>
       <c r="B169" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>133</v>
@@ -7686,20 +7700,20 @@
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H169" s="9">
         <v>2598</v>
       </c>
       <c r="I169" s="11"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
+    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="28"/>
       <c r="B170" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>133</v>
@@ -7709,20 +7723,20 @@
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H170" s="9">
         <v>2599</v>
       </c>
       <c r="I170" s="11"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="28"/>
       <c r="B171" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>133</v>
@@ -7732,20 +7746,20 @@
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H171" s="9">
         <v>2600</v>
       </c>
       <c r="I171" s="11"/>
     </row>
-    <row r="172" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
+    <row r="172" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="28"/>
       <c r="B172" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>13</v>
@@ -7755,18 +7769,18 @@
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H172" s="9">
         <v>2601</v>
       </c>
       <c r="I172" s="11"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="28"/>
       <c r="B173" s="9"/>
       <c r="C173" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>133</v>
@@ -7776,22 +7790,22 @@
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H173" s="9">
         <v>2602</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="28"/>
       <c r="B174" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>13</v>
@@ -7801,20 +7815,20 @@
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H174" s="9">
         <v>2603</v>
       </c>
       <c r="I174" s="11"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="28"/>
       <c r="B175" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>133</v>
@@ -7824,20 +7838,20 @@
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H175" s="9">
         <v>2604</v>
       </c>
       <c r="I175" s="11"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="28"/>
       <c r="B176" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>13</v>
@@ -7847,20 +7861,20 @@
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H176" s="9">
         <v>2605</v>
       </c>
       <c r="I176" s="11"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="28"/>
       <c r="B177" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>133</v>
@@ -7870,20 +7884,20 @@
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H177" s="9">
         <v>2606</v>
       </c>
       <c r="I177" s="11"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="28"/>
       <c r="B178" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9">
@@ -7896,13 +7910,13 @@
       </c>
       <c r="I178" s="11"/>
     </row>
-    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
+    <row r="179" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="28"/>
       <c r="B179" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>48</v>
@@ -7919,13 +7933,13 @@
       </c>
       <c r="I179" s="11"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="30"/>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="29"/>
       <c r="B180" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>125</v>
@@ -7935,22 +7949,22 @@
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H180" s="9">
         <v>2614</v>
       </c>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="28" t="s">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6">
@@ -7963,13 +7977,13 @@
       </c>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="28"/>
       <c r="B182" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>54</v>
@@ -7986,13 +8000,13 @@
       </c>
       <c r="I182" s="11"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="28"/>
       <c r="B183" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>125</v>
@@ -8002,20 +8016,20 @@
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H183" s="9">
         <v>3131</v>
       </c>
       <c r="I183" s="11"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="28"/>
       <c r="B184" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>133</v>
@@ -8025,20 +8039,20 @@
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H184" s="9">
         <v>3133</v>
       </c>
       <c r="I184" s="11"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="29"/>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="28"/>
       <c r="B185" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>133</v>
@@ -8048,20 +8062,20 @@
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H185" s="9">
         <v>3134</v>
       </c>
       <c r="I185" s="11"/>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
+    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="28"/>
       <c r="B186" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>133</v>
@@ -8071,20 +8085,20 @@
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H186" s="9">
         <v>3135</v>
       </c>
       <c r="I186" s="11"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="28"/>
       <c r="B187" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>133</v>
@@ -8094,20 +8108,20 @@
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H187" s="9">
         <v>3136</v>
       </c>
       <c r="I187" s="11"/>
     </row>
-    <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
+    <row r="188" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="28"/>
       <c r="B188" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>13</v>
@@ -8117,18 +8131,18 @@
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H188" s="9">
         <v>3137</v>
       </c>
       <c r="I188" s="11"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="28"/>
       <c r="B189" s="9"/>
       <c r="C189" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>133</v>
@@ -8138,22 +8152,22 @@
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H189" s="9">
         <v>3138</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="28"/>
       <c r="B190" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>13</v>
@@ -8163,20 +8177,20 @@
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H190" s="9">
         <v>3139</v>
       </c>
       <c r="I190" s="11"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="28"/>
       <c r="B191" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>133</v>
@@ -8186,20 +8200,20 @@
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H191" s="9">
         <v>3140</v>
       </c>
       <c r="I191" s="11"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="28"/>
       <c r="B192" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>13</v>
@@ -8209,20 +8223,20 @@
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H192" s="9">
         <v>3141</v>
       </c>
       <c r="I192" s="11"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="28"/>
       <c r="B193" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>133</v>
@@ -8232,20 +8246,20 @@
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H193" s="9">
         <v>3142</v>
       </c>
       <c r="I193" s="11"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="28"/>
       <c r="B194" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
@@ -8258,13 +8272,13 @@
       </c>
       <c r="I194" s="11"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
+    <row r="195" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="28"/>
       <c r="B195" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>48</v>
@@ -8281,13 +8295,13 @@
       </c>
       <c r="I195" s="11"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="30"/>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="29"/>
       <c r="B196" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>125</v>
@@ -8297,22 +8311,22 @@
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H196" s="9">
         <v>3150</v>
       </c>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="28" t="s">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="6">
@@ -8325,13 +8339,13 @@
       </c>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="28"/>
       <c r="B198" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>54</v>
@@ -8348,13 +8362,13 @@
       </c>
       <c r="I198" s="11"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="28"/>
       <c r="B199" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>125</v>
@@ -8364,20 +8378,20 @@
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H199" s="9">
         <v>3667</v>
       </c>
       <c r="I199" s="11"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="28"/>
       <c r="B200" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>133</v>
@@ -8387,20 +8401,20 @@
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H200" s="9">
         <v>3669</v>
       </c>
       <c r="I200" s="11"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="29"/>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="28"/>
       <c r="B201" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>133</v>
@@ -8410,20 +8424,20 @@
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H201" s="9">
         <v>3670</v>
       </c>
       <c r="I201" s="11"/>
     </row>
-    <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
+    <row r="202" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="28"/>
       <c r="B202" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>133</v>
@@ -8433,20 +8447,20 @@
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H202" s="9">
         <v>3671</v>
       </c>
       <c r="I202" s="11"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="28"/>
       <c r="B203" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>133</v>
@@ -8456,20 +8470,20 @@
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H203" s="9">
         <v>3672</v>
       </c>
       <c r="I203" s="11"/>
     </row>
-    <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
+    <row r="204" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="28"/>
       <c r="B204" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>13</v>
@@ -8479,18 +8493,18 @@
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H204" s="9">
         <v>3673</v>
       </c>
       <c r="I204" s="11"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="28"/>
       <c r="B205" s="9"/>
       <c r="C205" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>133</v>
@@ -8500,22 +8514,22 @@
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H205" s="9">
         <v>3674</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="28"/>
       <c r="B206" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>13</v>
@@ -8525,20 +8539,20 @@
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H206" s="9">
         <v>3675</v>
       </c>
       <c r="I206" s="11"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="29"/>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="28"/>
       <c r="B207" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>133</v>
@@ -8548,20 +8562,20 @@
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H207" s="9">
         <v>3676</v>
       </c>
       <c r="I207" s="11"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="29"/>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="28"/>
       <c r="B208" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>13</v>
@@ -8571,20 +8585,20 @@
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H208" s="9">
         <v>3677</v>
       </c>
       <c r="I208" s="11"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="29"/>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="28"/>
       <c r="B209" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>133</v>
@@ -8594,20 +8608,20 @@
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H209" s="9">
         <v>3678</v>
       </c>
       <c r="I209" s="11"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="29"/>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="28"/>
       <c r="B210" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9">
@@ -8620,13 +8634,13 @@
       </c>
       <c r="I210" s="11"/>
     </row>
-    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
+    <row r="211" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="28"/>
       <c r="B211" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>48</v>
@@ -8643,13 +8657,13 @@
       </c>
       <c r="I211" s="11"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="30"/>
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="29"/>
       <c r="B212" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>125</v>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H212" s="9">
         <v>3686</v>
@@ -8667,14 +8681,14 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="28" t="s">
-        <v>708</v>
+      <c r="A213" s="27" t="s">
+        <v>707</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6">
@@ -8688,12 +8702,12 @@
       <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="29"/>
+      <c r="A214" s="28"/>
       <c r="B214" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>54</v>
@@ -8703,7 +8717,7 @@
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H214" s="9">
         <v>4199</v>
@@ -8711,12 +8725,12 @@
       <c r="I214" s="11"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
+      <c r="A215" s="28"/>
       <c r="B215" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>125</v>
@@ -8726,7 +8740,7 @@
       </c>
       <c r="F215" s="9"/>
       <c r="G215" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H215" s="9">
         <v>4203</v>
@@ -8734,12 +8748,12 @@
       <c r="I215" s="11"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
+      <c r="A216" s="28"/>
       <c r="B216" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>133</v>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H216" s="9">
         <v>4205</v>
@@ -8757,12 +8771,12 @@
       <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
+      <c r="A217" s="28"/>
       <c r="B217" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>133</v>
@@ -8772,7 +8786,7 @@
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H217" s="9">
         <v>4206</v>
@@ -8780,12 +8794,12 @@
       <c r="I217" s="11"/>
     </row>
     <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
+      <c r="A218" s="28"/>
       <c r="B218" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>133</v>
@@ -8795,7 +8809,7 @@
       </c>
       <c r="F218" s="9"/>
       <c r="G218" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H218" s="9">
         <v>4207</v>
@@ -8803,12 +8817,12 @@
       <c r="I218" s="11"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
+      <c r="A219" s="28"/>
       <c r="B219" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>133</v>
@@ -8818,7 +8832,7 @@
       </c>
       <c r="F219" s="9"/>
       <c r="G219" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H219" s="9">
         <v>4208</v>
@@ -8826,12 +8840,12 @@
       <c r="I219" s="11"/>
     </row>
     <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="29"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>13</v>
@@ -8841,7 +8855,7 @@
       </c>
       <c r="F220" s="9"/>
       <c r="G220" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H220" s="9">
         <v>4209</v>
@@ -8849,10 +8863,10 @@
       <c r="I220" s="11"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="29"/>
+      <c r="A221" s="28"/>
       <c r="B221" s="9"/>
       <c r="C221" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>133</v>
@@ -8862,7 +8876,7 @@
       </c>
       <c r="F221" s="9"/>
       <c r="G221" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H221" s="9">
         <v>4210</v>
@@ -8870,12 +8884,12 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="29"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>13</v>
@@ -8885,7 +8899,7 @@
       </c>
       <c r="F222" s="9"/>
       <c r="G222" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H222" s="9">
         <v>4211</v>
@@ -8893,12 +8907,12 @@
       <c r="I222" s="11"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="29"/>
+      <c r="A223" s="28"/>
       <c r="B223" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>133</v>
@@ -8908,7 +8922,7 @@
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H223" s="9">
         <v>4212</v>
@@ -8916,12 +8930,12 @@
       <c r="I223" s="11"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="29"/>
+      <c r="A224" s="28"/>
       <c r="B224" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
@@ -8931,7 +8945,7 @@
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H224" s="9">
         <v>4213</v>
@@ -8939,12 +8953,12 @@
       <c r="I224" s="11"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="29"/>
+      <c r="A225" s="28"/>
       <c r="B225" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>133</v>
@@ -8954,7 +8968,7 @@
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H225" s="9">
         <v>4214</v>
@@ -8962,12 +8976,12 @@
       <c r="I225" s="11"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="29"/>
+      <c r="A226" s="28"/>
       <c r="B226" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9">
@@ -8981,12 +8995,12 @@
       <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="29"/>
+      <c r="A227" s="28"/>
       <c r="B227" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>48</v>
@@ -8996,7 +9010,7 @@
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H227" s="9">
         <v>4216</v>
@@ -9004,12 +9018,12 @@
       <c r="I227" s="11"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="29"/>
+      <c r="A228" s="28"/>
       <c r="B228" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>125</v>
@@ -9019,7 +9033,7 @@
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H228" s="9">
         <v>4222</v>
@@ -9027,14 +9041,14 @@
       <c r="I228" s="11"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D229" s="6"/>
       <c r="E229" s="6">
@@ -9048,10 +9062,10 @@
       <c r="I229" s="8"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="29"/>
+      <c r="A230" s="28"/>
       <c r="B230" s="9"/>
       <c r="C230" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>133</v>
@@ -9067,10 +9081,10 @@
       <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="29"/>
+      <c r="A231" s="28"/>
       <c r="B231" s="9"/>
       <c r="C231" s="10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>133</v>
@@ -9086,10 +9100,10 @@
       <c r="I231" s="11"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="29"/>
+      <c r="A232" s="28"/>
       <c r="B232" s="9"/>
       <c r="C232" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>133</v>
@@ -9105,10 +9119,10 @@
       <c r="I232" s="11"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="29"/>
+      <c r="A233" s="28"/>
       <c r="B233" s="9"/>
       <c r="C233" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>133</v>
@@ -9124,10 +9138,10 @@
       <c r="I233" s="11"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="29"/>
+      <c r="A234" s="28"/>
       <c r="B234" s="9"/>
       <c r="C234" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>133</v>
@@ -9143,10 +9157,10 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="29"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="9"/>
       <c r="C235" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>133</v>
@@ -9162,10 +9176,10 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="29"/>
+      <c r="A236" s="28"/>
       <c r="B236" s="9"/>
       <c r="C236" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>133</v>
@@ -9181,10 +9195,10 @@
       <c r="I236" s="11"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="29"/>
+      <c r="A237" s="28"/>
       <c r="B237" s="9"/>
       <c r="C237" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>133</v>
@@ -9200,10 +9214,10 @@
       <c r="I237" s="11"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="29"/>
+      <c r="A238" s="28"/>
       <c r="B238" s="9"/>
       <c r="C238" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>125</v>
@@ -9219,10 +9233,10 @@
       <c r="I238" s="11"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="29"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -9234,10 +9248,10 @@
       <c r="I239" s="11"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="29"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="9"/>
       <c r="C240" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -9249,10 +9263,10 @@
       <c r="I240" s="11"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="29"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="9"/>
       <c r="C241" s="10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>125</v>
@@ -9268,10 +9282,10 @@
       <c r="I241" s="11"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="29"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="9"/>
       <c r="C242" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9">
@@ -9285,10 +9299,10 @@
       <c r="I242" s="11"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="29"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="9"/>
       <c r="C243" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9">
@@ -9302,10 +9316,10 @@
       <c r="I243" s="11"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="29"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="9"/>
       <c r="C244" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9">
@@ -9319,10 +9333,10 @@
       <c r="I244" s="11"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="29"/>
+      <c r="A245" s="28"/>
       <c r="B245" s="9"/>
       <c r="C245" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
@@ -9336,10 +9350,10 @@
       <c r="I245" s="11"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="29"/>
+      <c r="A246" s="28"/>
       <c r="B246" s="9"/>
       <c r="C246" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -9351,10 +9365,10 @@
       <c r="I246" s="11"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="29"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="9"/>
       <c r="C247" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -9366,10 +9380,10 @@
       <c r="I247" s="11"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="29"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="9"/>
       <c r="C248" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -9381,10 +9395,10 @@
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="29"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="9"/>
       <c r="C249" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9">
@@ -9398,12 +9412,12 @@
       <c r="I249" s="11"/>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="29"/>
+      <c r="A250" s="28"/>
       <c r="B250" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9">
@@ -9417,12 +9431,12 @@
       <c r="I250" s="11"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="29"/>
+      <c r="A251" s="28"/>
       <c r="B251" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>32</v>
@@ -9438,12 +9452,12 @@
       <c r="I251" s="11"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="29"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9">
@@ -9459,12 +9473,12 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="30"/>
+      <c r="A253" s="29"/>
       <c r="B253" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D253" s="12"/>
       <c r="E253" s="12" t="s">
@@ -9481,11 +9495,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A213:A228"/>
-    <mergeCell ref="A229:A253"/>
-    <mergeCell ref="A100:A110"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A133:A148"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="A78:A88"/>
     <mergeCell ref="A89:A99"/>
     <mergeCell ref="A149:A164"/>
     <mergeCell ref="A165:A180"/>
@@ -9496,16 +9515,11 @@
     <mergeCell ref="A113:I113"/>
     <mergeCell ref="A121:A127"/>
     <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="A78:A88"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A213:A228"/>
+    <mergeCell ref="A229:A253"/>
+    <mergeCell ref="A100:A110"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A133:A148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9514,10 +9528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,43 +9546,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -9600,7 +9614,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>246</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -9627,7 +9641,7 @@
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="9" t="s">
         <v>162</v>
       </c>
@@ -9652,7 +9666,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="12" t="s">
         <v>164</v>
       </c>
@@ -9677,7 +9691,7 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -9704,7 +9718,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="9" t="s">
         <v>169</v>
       </c>
@@ -9729,7 +9743,7 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>171</v>
       </c>
@@ -9754,7 +9768,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
@@ -9779,7 +9793,7 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>176</v>
       </c>
@@ -9804,7 +9818,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="9" t="s">
         <v>179</v>
       </c>
@@ -9829,7 +9843,7 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>181</v>
       </c>
@@ -9854,7 +9868,7 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="12" t="s">
         <v>183</v>
       </c>
@@ -9879,7 +9893,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>251</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -9909,7 +9923,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
@@ -9937,7 +9951,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>121</v>
       </c>
@@ -9962,11 +9976,11 @@
         <v>32</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="12" t="s">
         <v>121</v>
       </c>
@@ -9992,7 +10006,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>191</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -10019,7 +10033,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9" t="s">
         <v>121</v>
       </c>
@@ -10044,7 +10058,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9" t="s">
         <v>253</v>
       </c>
@@ -10071,7 +10085,7 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9" t="s">
         <v>121</v>
       </c>
@@ -10094,7 +10108,7 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9" t="s">
         <v>121</v>
       </c>
@@ -10111,7 +10125,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H24" s="9">
         <v>122</v>
@@ -10121,7 +10135,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="12" t="s">
         <v>121</v>
       </c>
@@ -10146,7 +10160,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>242</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -10173,7 +10187,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="9" t="s">
         <v>195</v>
       </c>
@@ -10198,7 +10212,7 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>197</v>
       </c>
@@ -10223,7 +10237,7 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="9" t="s">
         <v>199</v>
       </c>
@@ -10248,7 +10262,7 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
@@ -10271,7 +10285,7 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -10298,7 +10312,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9" t="s">
         <v>204</v>
       </c>
@@ -10323,7 +10337,7 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="9" t="s">
         <v>206</v>
       </c>
@@ -10348,7 +10362,7 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="9" t="s">
         <v>208</v>
       </c>
@@ -10373,7 +10387,7 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
@@ -10396,7 +10410,7 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>258</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -10428,7 +10442,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
         <v>212</v>
       </c>
@@ -10455,7 +10469,7 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9" t="s">
         <v>213</v>
       </c>
@@ -10482,7 +10496,7 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9" t="s">
         <v>215</v>
       </c>
@@ -10509,7 +10523,7 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="12" t="s">
         <v>31</v>
       </c>
@@ -10534,7 +10548,7 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>261</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -10566,7 +10580,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="9" t="s">
         <v>218</v>
       </c>
@@ -10593,7 +10607,7 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="9" t="s">
         <v>219</v>
       </c>
@@ -10620,7 +10634,7 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="9" t="s">
         <v>220</v>
       </c>
@@ -10647,7 +10661,7 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="12" t="s">
         <v>31</v>
       </c>
@@ -10672,7 +10686,7 @@
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>264</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -10701,7 +10715,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="9" t="s">
         <v>297</v>
       </c>
@@ -10728,7 +10742,7 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
         <v>298</v>
       </c>
@@ -10755,7 +10769,7 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="9" t="s">
         <v>299</v>
       </c>
@@ -10782,7 +10796,7 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="12" t="s">
         <v>31</v>
       </c>
@@ -10807,7 +10821,7 @@
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>269</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -10836,7 +10850,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="9" t="s">
         <v>293</v>
       </c>
@@ -10863,7 +10877,7 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="9" t="s">
         <v>294</v>
       </c>
@@ -10890,7 +10904,7 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="9" t="s">
         <v>295</v>
       </c>
@@ -10917,7 +10931,7 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="12" t="s">
         <v>31</v>
       </c>
@@ -10942,7 +10956,7 @@
       <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>274</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -10971,7 +10985,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="9" t="s">
         <v>289</v>
       </c>
@@ -10998,7 +11012,7 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="9" t="s">
         <v>290</v>
       </c>
@@ -11025,7 +11039,7 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="9" t="s">
         <v>291</v>
       </c>
@@ -11052,7 +11066,7 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="12" t="s">
         <v>31</v>
       </c>
@@ -11077,7 +11091,7 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -11106,7 +11120,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="9" t="s">
         <v>285</v>
       </c>
@@ -11133,7 +11147,7 @@
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="9" t="s">
         <v>286</v>
       </c>
@@ -11160,7 +11174,7 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="9" t="s">
         <v>287</v>
       </c>
@@ -11187,7 +11201,7 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="12" t="s">
         <v>31</v>
       </c>
@@ -11212,8 +11226,8 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
-        <v>522</v>
+      <c r="A66" s="27" t="s">
+        <v>521</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>300</v>
@@ -11239,11 +11253,11 @@
         <v>192</v>
       </c>
       <c r="I66" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="9" t="s">
         <v>302</v>
       </c>
@@ -11270,7 +11284,7 @@
       <c r="I67" s="42"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="9" t="s">
         <v>304</v>
       </c>
@@ -11297,7 +11311,7 @@
       <c r="I68" s="42"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="9" t="s">
         <v>306</v>
       </c>
@@ -11324,7 +11338,7 @@
       <c r="I69" s="42"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="9" t="s">
         <v>31</v>
       </c>
@@ -11349,8 +11363,8 @@
       <c r="I70" s="42"/>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>523</v>
+      <c r="A71" s="28" t="s">
+        <v>522</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>308</v>
@@ -11378,7 +11392,7 @@
       <c r="I71" s="42"/>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="9" t="s">
         <v>310</v>
       </c>
@@ -11405,7 +11419,7 @@
       <c r="I72" s="42"/>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="9" t="s">
         <v>312</v>
       </c>
@@ -11432,7 +11446,7 @@
       <c r="I73" s="42"/>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="9" t="s">
         <v>314</v>
       </c>
@@ -11459,7 +11473,7 @@
       <c r="I74" s="42"/>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="9" t="s">
         <v>31</v>
       </c>
@@ -11484,8 +11498,8 @@
       <c r="I75" s="42"/>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>524</v>
+      <c r="A76" s="28" t="s">
+        <v>523</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>316</v>
@@ -11513,7 +11527,7 @@
       <c r="I76" s="42"/>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="9" t="s">
         <v>318</v>
       </c>
@@ -11540,7 +11554,7 @@
       <c r="I77" s="42"/>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="9" t="s">
         <v>320</v>
       </c>
@@ -11567,7 +11581,7 @@
       <c r="I78" s="42"/>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="9" t="s">
         <v>322</v>
       </c>
@@ -11594,7 +11608,7 @@
       <c r="I79" s="42"/>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="9" t="s">
         <v>31</v>
       </c>
@@ -11619,8 +11633,8 @@
       <c r="I80" s="42"/>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
-        <v>525</v>
+      <c r="A81" s="28" t="s">
+        <v>524</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>324</v>
@@ -11648,7 +11662,7 @@
       <c r="I81" s="42"/>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="9" t="s">
         <v>326</v>
       </c>
@@ -11675,7 +11689,7 @@
       <c r="I82" s="42"/>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="9" t="s">
         <v>328</v>
       </c>
@@ -11702,7 +11716,7 @@
       <c r="I83" s="42"/>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="9" t="s">
         <v>330</v>
       </c>
@@ -11729,7 +11743,7 @@
       <c r="I84" s="42"/>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="9" t="s">
         <v>31</v>
       </c>
@@ -11754,8 +11768,8 @@
       <c r="I85" s="42"/>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
-        <v>526</v>
+      <c r="A86" s="28" t="s">
+        <v>525</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>332</v>
@@ -11783,7 +11797,7 @@
       <c r="I86" s="42"/>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="9" t="s">
         <v>334</v>
       </c>
@@ -11810,7 +11824,7 @@
       <c r="I87" s="42"/>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="9" t="s">
         <v>336</v>
       </c>
@@ -11837,7 +11851,7 @@
       <c r="I88" s="42"/>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="9" t="s">
         <v>338</v>
       </c>
@@ -11864,7 +11878,7 @@
       <c r="I89" s="42"/>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="9" t="s">
         <v>31</v>
       </c>
@@ -11889,8 +11903,8 @@
       <c r="I90" s="42"/>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
-        <v>527</v>
+      <c r="A91" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>340</v>
@@ -11918,7 +11932,7 @@
       <c r="I91" s="42"/>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="9" t="s">
         <v>342</v>
       </c>
@@ -11945,7 +11959,7 @@
       <c r="I92" s="42"/>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="9" t="s">
         <v>344</v>
       </c>
@@ -11972,7 +11986,7 @@
       <c r="I93" s="42"/>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="9" t="s">
         <v>346</v>
       </c>
@@ -11999,7 +12013,7 @@
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="9" t="s">
         <v>31</v>
       </c>
@@ -12024,8 +12038,8 @@
       <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
-        <v>528</v>
+      <c r="A96" s="28" t="s">
+        <v>527</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>348</v>
@@ -12053,7 +12067,7 @@
       <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="9" t="s">
         <v>350</v>
       </c>
@@ -12080,7 +12094,7 @@
       <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="9" t="s">
         <v>352</v>
       </c>
@@ -12107,7 +12121,7 @@
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="9" t="s">
         <v>354</v>
       </c>
@@ -12134,7 +12148,7 @@
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
+      <c r="A100" s="28"/>
       <c r="B100" s="9" t="s">
         <v>31</v>
       </c>
@@ -12159,8 +12173,8 @@
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
-        <v>529</v>
+      <c r="A101" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>356</v>
@@ -12188,7 +12202,7 @@
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="9" t="s">
         <v>358</v>
       </c>
@@ -12215,7 +12229,7 @@
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="9" t="s">
         <v>360</v>
       </c>
@@ -12242,7 +12256,7 @@
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="9" t="s">
         <v>362</v>
       </c>
@@ -12269,7 +12283,7 @@
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="9" t="s">
         <v>31</v>
       </c>
@@ -12297,8 +12311,8 @@
       <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29" t="s">
-        <v>530</v>
+      <c r="A106" s="28" t="s">
+        <v>529</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>364</v>
@@ -12326,7 +12340,7 @@
       <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="9" t="s">
         <v>366</v>
       </c>
@@ -12353,7 +12367,7 @@
       <c r="I107" s="42"/>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="9" t="s">
         <v>368</v>
       </c>
@@ -12380,7 +12394,7 @@
       <c r="I108" s="42"/>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="9" t="s">
         <v>370</v>
       </c>
@@ -12407,7 +12421,7 @@
       <c r="I109" s="42"/>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="9" t="s">
         <v>31</v>
       </c>
@@ -12432,8 +12446,8 @@
       <c r="I110" s="42"/>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
-        <v>531</v>
+      <c r="A111" s="28" t="s">
+        <v>530</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>372</v>
@@ -12461,7 +12475,7 @@
       <c r="I111" s="42"/>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="9" t="s">
         <v>374</v>
       </c>
@@ -12488,7 +12502,7 @@
       <c r="I112" s="42"/>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="9" t="s">
         <v>376</v>
       </c>
@@ -12515,7 +12529,7 @@
       <c r="I113" s="42"/>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="A114" s="28"/>
       <c r="B114" s="9" t="s">
         <v>378</v>
       </c>
@@ -12542,7 +12556,7 @@
       <c r="I114" s="42"/>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="9" t="s">
         <v>31</v>
       </c>
@@ -12567,8 +12581,8 @@
       <c r="I115" s="42"/>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>532</v>
+      <c r="A116" s="28" t="s">
+        <v>531</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>380</v>
@@ -12596,7 +12610,7 @@
       <c r="I116" s="42"/>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="9" t="s">
         <v>382</v>
       </c>
@@ -12623,7 +12637,7 @@
       <c r="I117" s="42"/>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="9" t="s">
         <v>384</v>
       </c>
@@ -12650,7 +12664,7 @@
       <c r="I118" s="42"/>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="9" t="s">
         <v>386</v>
       </c>
@@ -12677,7 +12691,7 @@
       <c r="I119" s="42"/>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="9" t="s">
         <v>31</v>
       </c>
@@ -12702,8 +12716,8 @@
       <c r="I120" s="42"/>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
-        <v>533</v>
+      <c r="A121" s="28" t="s">
+        <v>532</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>388</v>
@@ -12731,7 +12745,7 @@
       <c r="I121" s="42"/>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="9" t="s">
         <v>390</v>
       </c>
@@ -12758,7 +12772,7 @@
       <c r="I122" s="42"/>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="9" t="s">
         <v>392</v>
       </c>
@@ -12785,7 +12799,7 @@
       <c r="I123" s="42"/>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="9" t="s">
         <v>394</v>
       </c>
@@ -12812,7 +12826,7 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="9" t="s">
         <v>31</v>
       </c>
@@ -12837,8 +12851,8 @@
       <c r="I125" s="42"/>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
-        <v>534</v>
+      <c r="A126" s="28" t="s">
+        <v>533</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>396</v>
@@ -12866,7 +12880,7 @@
       <c r="I126" s="42"/>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="9" t="s">
         <v>398</v>
       </c>
@@ -12893,7 +12907,7 @@
       <c r="I127" s="42"/>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+      <c r="A128" s="28"/>
       <c r="B128" s="9" t="s">
         <v>400</v>
       </c>
@@ -12920,7 +12934,7 @@
       <c r="I128" s="42"/>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="9" t="s">
         <v>402</v>
       </c>
@@ -12947,7 +12961,7 @@
       <c r="I129" s="42"/>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="9" t="s">
         <v>31</v>
       </c>
@@ -12972,8 +12986,8 @@
       <c r="I130" s="42"/>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
-        <v>535</v>
+      <c r="A131" s="28" t="s">
+        <v>534</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>404</v>
@@ -13001,7 +13015,7 @@
       <c r="I131" s="42"/>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="9" t="s">
         <v>406</v>
       </c>
@@ -13028,7 +13042,7 @@
       <c r="I132" s="42"/>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="9" t="s">
         <v>408</v>
       </c>
@@ -13055,7 +13069,7 @@
       <c r="I133" s="42"/>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="9" t="s">
         <v>410</v>
       </c>
@@ -13082,7 +13096,7 @@
       <c r="I134" s="42"/>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="9" t="s">
         <v>31</v>
       </c>
@@ -13107,8 +13121,8 @@
       <c r="I135" s="42"/>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29" t="s">
-        <v>536</v>
+      <c r="A136" s="28" t="s">
+        <v>535</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>412</v>
@@ -13136,7 +13150,7 @@
       <c r="I136" s="42"/>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="9" t="s">
         <v>414</v>
       </c>
@@ -13163,7 +13177,7 @@
       <c r="I137" s="42"/>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="A138" s="28"/>
       <c r="B138" s="9" t="s">
         <v>416</v>
       </c>
@@ -13190,7 +13204,7 @@
       <c r="I138" s="42"/>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="9" t="s">
         <v>418</v>
       </c>
@@ -13217,7 +13231,7 @@
       <c r="I139" s="42"/>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
+      <c r="A140" s="28"/>
       <c r="B140" s="9" t="s">
         <v>31</v>
       </c>
@@ -13242,8 +13256,8 @@
       <c r="I140" s="42"/>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29" t="s">
-        <v>537</v>
+      <c r="A141" s="28" t="s">
+        <v>536</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>420</v>
@@ -13271,7 +13285,7 @@
       <c r="I141" s="42"/>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
+      <c r="A142" s="28"/>
       <c r="B142" s="9" t="s">
         <v>422</v>
       </c>
@@ -13298,7 +13312,7 @@
       <c r="I142" s="42"/>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="9" t="s">
         <v>424</v>
       </c>
@@ -13325,7 +13339,7 @@
       <c r="I143" s="42"/>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="9" t="s">
         <v>426</v>
       </c>
@@ -13352,7 +13366,7 @@
       <c r="I144" s="42"/>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="9" t="s">
         <v>31</v>
       </c>
@@ -13377,8 +13391,8 @@
       <c r="I145" s="42"/>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="29" t="s">
-        <v>538</v>
+      <c r="A146" s="28" t="s">
+        <v>537</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>428</v>
@@ -13406,7 +13420,7 @@
       <c r="I146" s="42"/>
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="9" t="s">
         <v>430</v>
       </c>
@@ -13433,7 +13447,7 @@
       <c r="I147" s="42"/>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
+      <c r="A148" s="28"/>
       <c r="B148" s="9" t="s">
         <v>432</v>
       </c>
@@ -13460,7 +13474,7 @@
       <c r="I148" s="42"/>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="9" t="s">
         <v>434</v>
       </c>
@@ -13487,7 +13501,7 @@
       <c r="I149" s="42"/>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
+      <c r="A150" s="28"/>
       <c r="B150" s="9" t="s">
         <v>31</v>
       </c>
@@ -13512,8 +13526,8 @@
       <c r="I150" s="42"/>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="29" t="s">
-        <v>539</v>
+      <c r="A151" s="28" t="s">
+        <v>538</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>436</v>
@@ -13541,7 +13555,7 @@
       <c r="I151" s="42"/>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="9" t="s">
         <v>438</v>
       </c>
@@ -13568,7 +13582,7 @@
       <c r="I152" s="42"/>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="9" t="s">
         <v>440</v>
       </c>
@@ -13595,7 +13609,7 @@
       <c r="I153" s="42"/>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
+      <c r="A154" s="28"/>
       <c r="B154" s="9" t="s">
         <v>442</v>
       </c>
@@ -13622,7 +13636,7 @@
       <c r="I154" s="42"/>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="9" t="s">
         <v>31</v>
       </c>
@@ -13647,8 +13661,8 @@
       <c r="I155" s="42"/>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29" t="s">
-        <v>540</v>
+      <c r="A156" s="28" t="s">
+        <v>539</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>444</v>
@@ -13676,7 +13690,7 @@
       <c r="I156" s="42"/>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="29"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="9" t="s">
         <v>446</v>
       </c>
@@ -13703,7 +13717,7 @@
       <c r="I157" s="42"/>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29"/>
+      <c r="A158" s="28"/>
       <c r="B158" s="9" t="s">
         <v>448</v>
       </c>
@@ -13730,7 +13744,7 @@
       <c r="I158" s="42"/>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="9" t="s">
         <v>450</v>
       </c>
@@ -13757,7 +13771,7 @@
       <c r="I159" s="42"/>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="9" t="s">
         <v>31</v>
       </c>
@@ -13782,8 +13796,8 @@
       <c r="I160" s="42"/>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="29" t="s">
-        <v>541</v>
+      <c r="A161" s="28" t="s">
+        <v>540</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>452</v>
@@ -13811,7 +13825,7 @@
       <c r="I161" s="42"/>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
+      <c r="A162" s="28"/>
       <c r="B162" s="9" t="s">
         <v>454</v>
       </c>
@@ -13838,7 +13852,7 @@
       <c r="I162" s="42"/>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="9" t="s">
         <v>456</v>
       </c>
@@ -13865,7 +13879,7 @@
       <c r="I163" s="42"/>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="9" t="s">
         <v>458</v>
       </c>
@@ -13892,7 +13906,7 @@
       <c r="I164" s="42"/>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="9" t="s">
         <v>31</v>
       </c>
@@ -13917,8 +13931,8 @@
       <c r="I165" s="42"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
-        <v>542</v>
+      <c r="A166" s="28" t="s">
+        <v>541</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>460</v>
@@ -13946,7 +13960,7 @@
       <c r="I166" s="42"/>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="9" t="s">
         <v>462</v>
       </c>
@@ -13973,7 +13987,7 @@
       <c r="I167" s="42"/>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="9" t="s">
         <v>464</v>
       </c>
@@ -14000,7 +14014,7 @@
       <c r="I168" s="42"/>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="9" t="s">
         <v>466</v>
       </c>
@@ -14030,7 +14044,7 @@
       <c r="I169" s="42"/>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="9" t="s">
         <v>31</v>
       </c>
@@ -14055,8 +14069,8 @@
       <c r="I170" s="42"/>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29" t="s">
-        <v>543</v>
+      <c r="A171" s="28" t="s">
+        <v>542</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>468</v>
@@ -14084,7 +14098,7 @@
       <c r="I171" s="42"/>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="9" t="s">
         <v>470</v>
       </c>
@@ -14111,7 +14125,7 @@
       <c r="I172" s="42"/>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="9" t="s">
         <v>472</v>
       </c>
@@ -14138,7 +14152,7 @@
       <c r="I173" s="42"/>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="9" t="s">
         <v>474</v>
       </c>
@@ -14165,7 +14179,7 @@
       <c r="I174" s="42"/>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
+      <c r="A175" s="28"/>
       <c r="B175" s="9" t="s">
         <v>31</v>
       </c>
@@ -14190,8 +14204,8 @@
       <c r="I175" s="42"/>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29" t="s">
-        <v>544</v>
+      <c r="A176" s="28" t="s">
+        <v>543</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>476</v>
@@ -14219,7 +14233,7 @@
       <c r="I176" s="42"/>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
+      <c r="A177" s="28"/>
       <c r="B177" s="9" t="s">
         <v>478</v>
       </c>
@@ -14246,7 +14260,7 @@
       <c r="I177" s="42"/>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="9" t="s">
         <v>480</v>
       </c>
@@ -14273,7 +14287,7 @@
       <c r="I178" s="42"/>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="9" t="s">
         <v>482</v>
       </c>
@@ -14300,7 +14314,7 @@
       <c r="I179" s="42"/>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="9" t="s">
         <v>31</v>
       </c>
@@ -14325,8 +14339,8 @@
       <c r="I180" s="42"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="29" t="s">
-        <v>545</v>
+      <c r="A181" s="28" t="s">
+        <v>544</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>484</v>
@@ -14354,7 +14368,7 @@
       <c r="I181" s="42"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="9" t="s">
         <v>486</v>
       </c>
@@ -14381,7 +14395,7 @@
       <c r="I182" s="42"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
+      <c r="A183" s="28"/>
       <c r="B183" s="9" t="s">
         <v>488</v>
       </c>
@@ -14408,7 +14422,7 @@
       <c r="I183" s="42"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="9" t="s">
         <v>490</v>
       </c>
@@ -14435,7 +14449,7 @@
       <c r="I184" s="42"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="30"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="12" t="s">
         <v>31</v>
       </c>
@@ -14465,28 +14479,28 @@
         <v>130</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F186" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G186" s="17"/>
       <c r="H186" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I186" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
-        <v>686</v>
+      <c r="A187" s="27" t="s">
+        <v>685</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>121</v>
@@ -14511,7 +14525,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
+      <c r="A188" s="28"/>
       <c r="B188" s="9" t="s">
         <v>121</v>
       </c>
@@ -14535,7 +14549,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="9" t="s">
         <v>493</v>
       </c>
@@ -14559,9 +14573,9 @@
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
+      <c r="A190" s="28"/>
       <c r="B190" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C190" s="9" t="str">
         <f t="shared" si="11"/>
@@ -14587,7 +14601,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="9" t="s">
         <v>496</v>
       </c>
@@ -14613,7 +14627,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="9" t="s">
         <v>497</v>
       </c>
@@ -14639,9 +14653,9 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C193" s="9" t="str">
         <f t="shared" si="11"/>
@@ -14653,7 +14667,7 @@
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H193" s="9">
         <v>521</v>
@@ -14661,9 +14675,9 @@
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
+      <c r="A194" s="28"/>
       <c r="B194" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C194" s="9" t="str">
         <f t="shared" si="11"/>
@@ -14677,7 +14691,7 @@
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H194" s="9">
         <v>522</v>
@@ -14685,9 +14699,9 @@
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
+      <c r="A195" s="29"/>
       <c r="B195" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C195" s="12" t="str">
         <f t="shared" si="11"/>
@@ -14703,77 +14717,77 @@
         <v>964</v>
       </c>
       <c r="I195" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="32"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="34"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="35" t="s">
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="35"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="B197" s="36"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
-      <c r="F197" s="36"/>
-      <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="37"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="35" t="s">
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+      <c r="I198" s="35"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="B198" s="36"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="36"/>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="37"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="35" t="s">
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="35"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="36" t="s">
         <v>705</v>
       </c>
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
-      <c r="D199" s="36"/>
-      <c r="E199" s="36"/>
-      <c r="F199" s="36"/>
-      <c r="G199" s="36"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="37"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="39"/>
-      <c r="H200" s="39"/>
-      <c r="I200" s="40"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="37"/>
+      <c r="H200" s="37"/>
+      <c r="I200" s="38"/>
     </row>
     <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="28" t="s">
-        <v>687</v>
+      <c r="A201" s="27" t="s">
+        <v>686</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>121</v>
@@ -14793,7 +14807,7 @@
         <v>19</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H201" s="6">
         <f>H195+E195</f>
@@ -14804,7 +14818,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
+      <c r="A202" s="28"/>
       <c r="B202" s="9" t="s">
         <v>121</v>
       </c>
@@ -14829,7 +14843,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
+      <c r="A203" s="28"/>
       <c r="B203" s="9" t="s">
         <v>493</v>
       </c>
@@ -14854,9 +14868,9 @@
       <c r="I203" s="11"/>
     </row>
     <row r="204" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
+      <c r="A204" s="28"/>
       <c r="B204" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C204" s="9" t="str">
         <f t="shared" si="12"/>
@@ -14883,7 +14897,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
+      <c r="A205" s="28"/>
       <c r="B205" s="9" t="s">
         <v>496</v>
       </c>
@@ -14899,7 +14913,7 @@
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H205" s="9">
         <f t="shared" si="13"/>
@@ -14910,7 +14924,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
+      <c r="A206" s="28"/>
       <c r="B206" s="9" t="s">
         <v>497</v>
       </c>
@@ -14937,9 +14951,9 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="29"/>
+      <c r="A207" s="28"/>
       <c r="B207" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C207" s="9" t="str">
         <f t="shared" si="12"/>
@@ -14951,7 +14965,7 @@
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H207" s="9">
         <f t="shared" si="13"/>
@@ -14960,9 +14974,9 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="29"/>
+      <c r="A208" s="28"/>
       <c r="B208" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C208" s="9" t="str">
         <f t="shared" si="12"/>
@@ -14976,7 +14990,7 @@
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H208" s="9">
         <f t="shared" si="13"/>
@@ -14985,9 +14999,9 @@
       <c r="I208" s="11"/>
     </row>
     <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="30"/>
+      <c r="A209" s="29"/>
       <c r="B209" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C209" s="12" t="str">
         <f t="shared" si="12"/>
@@ -15004,12 +15018,12 @@
         <v>1476</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
-        <v>688</v>
+      <c r="A210" s="27" t="s">
+        <v>687</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>121</v>
@@ -15038,7 +15052,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
+      <c r="A211" s="28"/>
       <c r="B211" s="9" t="s">
         <v>121</v>
       </c>
@@ -15063,7 +15077,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
+      <c r="A212" s="28"/>
       <c r="B212" s="9" t="s">
         <v>493</v>
       </c>
@@ -15088,9 +15102,9 @@
       <c r="I212" s="11"/>
     </row>
     <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
+      <c r="A213" s="28"/>
       <c r="B213" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C213" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15117,7 +15131,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="29"/>
+      <c r="A214" s="28"/>
       <c r="B214" s="9" t="s">
         <v>496</v>
       </c>
@@ -15133,7 +15147,7 @@
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H214" s="9">
         <f t="shared" si="15"/>
@@ -15144,7 +15158,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
+      <c r="A215" s="28"/>
       <c r="B215" s="9" t="s">
         <v>497</v>
       </c>
@@ -15171,9 +15185,9 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
+      <c r="A216" s="28"/>
       <c r="B216" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C216" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15185,7 +15199,7 @@
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H216" s="9">
         <f t="shared" si="15"/>
@@ -15194,9 +15208,9 @@
       <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
+      <c r="A217" s="28"/>
       <c r="B217" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C217" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15210,7 +15224,7 @@
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H217" s="9">
         <f t="shared" si="15"/>
@@ -15219,9 +15233,9 @@
       <c r="I217" s="11"/>
     </row>
     <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="30"/>
+      <c r="A218" s="29"/>
       <c r="B218" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C218" s="12" t="str">
         <f t="shared" si="14"/>
@@ -15238,12 +15252,12 @@
         <v>1988</v>
       </c>
       <c r="I218" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="28" t="s">
-        <v>689</v>
+      <c r="A219" s="27" t="s">
+        <v>688</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>121</v>
@@ -15269,7 +15283,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="29"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="9" t="s">
         <v>121</v>
       </c>
@@ -15294,7 +15308,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="29"/>
+      <c r="A221" s="28"/>
       <c r="B221" s="9" t="s">
         <v>493</v>
       </c>
@@ -15319,9 +15333,9 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="29"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C222" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15348,7 +15362,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" s="29"/>
+      <c r="A223" s="28"/>
       <c r="B223" s="9" t="s">
         <v>496</v>
       </c>
@@ -15364,7 +15378,7 @@
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H223" s="9">
         <f t="shared" si="16"/>
@@ -15375,7 +15389,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="29"/>
+      <c r="A224" s="28"/>
       <c r="B224" s="9" t="s">
         <v>497</v>
       </c>
@@ -15402,9 +15416,9 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="29"/>
+      <c r="A225" s="28"/>
       <c r="B225" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C225" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15416,7 +15430,7 @@
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H225" s="9">
         <f t="shared" si="16"/>
@@ -15425,9 +15439,9 @@
       <c r="I225" s="11"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="29"/>
+      <c r="A226" s="28"/>
       <c r="B226" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C226" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15441,7 +15455,7 @@
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H226" s="9">
         <f t="shared" si="16"/>
@@ -15450,9 +15464,9 @@
       <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="30"/>
+      <c r="A227" s="29"/>
       <c r="B227" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C227" s="12" t="str">
         <f t="shared" si="14"/>
@@ -15469,12 +15483,12 @@
         <v>2500</v>
       </c>
       <c r="I227" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="28" t="s">
-        <v>690</v>
+      <c r="A228" s="27" t="s">
+        <v>689</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>121</v>
@@ -15500,7 +15514,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="29"/>
+      <c r="A229" s="28"/>
       <c r="B229" s="9" t="s">
         <v>121</v>
       </c>
@@ -15525,7 +15539,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="29"/>
+      <c r="A230" s="28"/>
       <c r="B230" s="9" t="s">
         <v>493</v>
       </c>
@@ -15550,9 +15564,9 @@
       <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="29"/>
+      <c r="A231" s="28"/>
       <c r="B231" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C231" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15579,7 +15593,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="29"/>
+      <c r="A232" s="28"/>
       <c r="B232" s="9" t="s">
         <v>496</v>
       </c>
@@ -15595,7 +15609,7 @@
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H232" s="9">
         <f t="shared" si="17"/>
@@ -15606,7 +15620,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="29"/>
+      <c r="A233" s="28"/>
       <c r="B233" s="9" t="s">
         <v>497</v>
       </c>
@@ -15633,9 +15647,9 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="29"/>
+      <c r="A234" s="28"/>
       <c r="B234" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C234" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15647,7 +15661,7 @@
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H234" s="9">
         <f t="shared" si="17"/>
@@ -15656,9 +15670,9 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="29"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C235" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15672,7 +15686,7 @@
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H235" s="9">
         <f t="shared" si="17"/>
@@ -15681,9 +15695,9 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="30"/>
+      <c r="A236" s="29"/>
       <c r="B236" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C236" s="12" t="str">
         <f t="shared" si="14"/>
@@ -15700,12 +15714,12 @@
         <v>3012</v>
       </c>
       <c r="I236" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="28" t="s">
-        <v>691</v>
+      <c r="A237" s="27" t="s">
+        <v>690</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>121</v>
@@ -15731,7 +15745,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="29"/>
+      <c r="A238" s="28"/>
       <c r="B238" s="9" t="s">
         <v>121</v>
       </c>
@@ -15756,7 +15770,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="29"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="9" t="s">
         <v>493</v>
       </c>
@@ -15781,9 +15795,9 @@
       <c r="I239" s="11"/>
     </row>
     <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="29"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C240" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15810,7 +15824,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A241" s="29"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="9" t="s">
         <v>496</v>
       </c>
@@ -15826,7 +15840,7 @@
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H241" s="9">
         <f t="shared" si="18"/>
@@ -15837,7 +15851,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="29"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="9" t="s">
         <v>497</v>
       </c>
@@ -15864,9 +15878,9 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="29"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C243" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15878,7 +15892,7 @@
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H243" s="9">
         <f t="shared" si="18"/>
@@ -15887,9 +15901,9 @@
       <c r="I243" s="11"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="29"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C244" s="9" t="str">
         <f t="shared" si="14"/>
@@ -15903,7 +15917,7 @@
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H244" s="9">
         <f t="shared" si="18"/>
@@ -15912,9 +15926,9 @@
       <c r="I244" s="11"/>
     </row>
     <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="30"/>
+      <c r="A245" s="29"/>
       <c r="B245" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C245" s="12" t="str">
         <f t="shared" si="14"/>
@@ -15931,12 +15945,12 @@
         <v>3524</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
-        <v>692</v>
+      <c r="A246" s="27" t="s">
+        <v>691</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>121</v>
@@ -15962,7 +15976,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="29"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="9" t="s">
         <v>121</v>
       </c>
@@ -15987,7 +16001,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="29"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="9" t="s">
         <v>493</v>
       </c>
@@ -16012,9 +16026,9 @@
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A249" s="29"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C249" s="9" t="str">
         <f t="shared" si="14"/>
@@ -16041,7 +16055,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="29"/>
+      <c r="A250" s="28"/>
       <c r="B250" s="9" t="s">
         <v>496</v>
       </c>
@@ -16057,7 +16071,7 @@
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H250" s="9">
         <f t="shared" si="19"/>
@@ -16068,7 +16082,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="29"/>
+      <c r="A251" s="28"/>
       <c r="B251" s="9" t="s">
         <v>497</v>
       </c>
@@ -16095,9 +16109,9 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="29"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C252" s="9" t="str">
         <f t="shared" si="14"/>
@@ -16109,7 +16123,7 @@
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H252" s="9">
         <f t="shared" si="19"/>
@@ -16118,9 +16132,9 @@
       <c r="I252" s="11"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="29"/>
+      <c r="A253" s="28"/>
       <c r="B253" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C253" s="9" t="str">
         <f t="shared" si="14"/>
@@ -16134,7 +16148,7 @@
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H253" s="9">
         <f t="shared" si="19"/>
@@ -16143,9 +16157,9 @@
       <c r="I253" s="11"/>
     </row>
     <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="30"/>
+      <c r="A254" s="29"/>
       <c r="B254" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C254" s="12" t="str">
         <f t="shared" si="14"/>
@@ -16162,12 +16176,12 @@
         <v>4036</v>
       </c>
       <c r="I254" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="28" t="s">
-        <v>693</v>
+      <c r="A255" s="27" t="s">
+        <v>692</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>121</v>
@@ -16196,7 +16210,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="29"/>
+      <c r="A256" s="28"/>
       <c r="B256" s="9" t="s">
         <v>121</v>
       </c>
@@ -16221,7 +16235,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="29"/>
+      <c r="A257" s="28"/>
       <c r="B257" s="9" t="s">
         <v>493</v>
       </c>
@@ -16246,9 +16260,9 @@
       <c r="I257" s="11"/>
     </row>
     <row r="258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A258" s="29"/>
+      <c r="A258" s="28"/>
       <c r="B258" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C258" s="9" t="str">
         <f t="shared" si="20"/>
@@ -16275,7 +16289,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="29"/>
+      <c r="A259" s="28"/>
       <c r="B259" s="9" t="s">
         <v>496</v>
       </c>
@@ -16291,7 +16305,7 @@
       </c>
       <c r="F259" s="9"/>
       <c r="G259" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H259" s="9">
         <f t="shared" si="21"/>
@@ -16302,7 +16316,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="29"/>
+      <c r="A260" s="28"/>
       <c r="B260" s="9" t="s">
         <v>497</v>
       </c>
@@ -16329,9 +16343,9 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="29"/>
+      <c r="A261" s="28"/>
       <c r="B261" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C261" s="9" t="str">
         <f t="shared" si="20"/>
@@ -16343,7 +16357,7 @@
       </c>
       <c r="F261" s="9"/>
       <c r="G261" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H261" s="9">
         <f t="shared" si="21"/>
@@ -16352,9 +16366,9 @@
       <c r="I261" s="11"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="29"/>
+      <c r="A262" s="28"/>
       <c r="B262" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C262" s="9" t="str">
         <f t="shared" si="20"/>
@@ -16368,7 +16382,7 @@
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H262" s="9">
         <f t="shared" si="21"/>
@@ -16377,9 +16391,9 @@
       <c r="I262" s="11"/>
     </row>
     <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="30"/>
+      <c r="A263" s="29"/>
       <c r="B263" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C263" s="12" t="str">
         <f t="shared" si="20"/>
@@ -16396,11 +16410,11 @@
         <v>4548</v>
       </c>
       <c r="I263" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="28" t="s">
+      <c r="A264" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -16422,93 +16436,84 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="29"/>
+      <c r="A265" s="28"/>
       <c r="B265" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F265" s="9"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9">
         <v>4622</v>
       </c>
-      <c r="I265" s="11"/>
+      <c r="I265" s="11" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="29"/>
+      <c r="A266" s="28"/>
       <c r="B266" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9">
+        <v>4623</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="28"/>
+      <c r="B267" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9">
+        <v>4</v>
+      </c>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9">
         <v>4624</v>
       </c>
-      <c r="I266" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="30"/>
-      <c r="B267" s="12" t="s">
+      <c r="I267" s="11"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="29"/>
+      <c r="B268" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12">
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="12">
         <v>4628</v>
       </c>
-      <c r="I267" s="14" t="s">
+      <c r="I268" s="14" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A228:A236"/>
+    <mergeCell ref="A237:A245"/>
+    <mergeCell ref="A246:A254"/>
+    <mergeCell ref="A255:A263"/>
+    <mergeCell ref="A264:A268"/>
     <mergeCell ref="I66:I185"/>
     <mergeCell ref="A187:A195"/>
     <mergeCell ref="A201:A209"/>
@@ -16525,11 +16530,39 @@
     <mergeCell ref="A176:A180"/>
     <mergeCell ref="A181:A185"/>
     <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A228:A236"/>
-    <mergeCell ref="A237:A245"/>
-    <mergeCell ref="A246:A254"/>
-    <mergeCell ref="A255:A263"/>
-    <mergeCell ref="A264:A267"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16552,16 +16585,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>907</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16569,7 +16602,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16577,7 +16610,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16585,7 +16618,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16647,7 +16680,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16655,7 +16688,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16663,7 +16696,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16671,29 +16704,29 @@
         <v>0</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>916</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>907</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -16755,7 +16788,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -16763,7 +16796,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16789,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16797,29 +16830,29 @@
         <v>0</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B41" s="45"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>907</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16827,7 +16860,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16835,7 +16868,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16843,7 +16876,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16857,7 +16890,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16895,7 +16928,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16903,7 +16936,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16911,7 +16944,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16919,7 +16952,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16927,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -16935,15 +16968,15 @@
         <v>0</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
